--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-BV-bermbeveiligingsvoorzieningen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-BV-bermbeveiligingsvoorzieningen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AEDF49B4-5793-423F-820A-F28FE7F91A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3C3EB714-0D2B-4279-A683-25D99CC80BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E6506EE2-EDE1-442D-ABF7-FC05EA743A3D}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{C1062C8A-015A-4407-BF23-051FABCA0885}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-BV-bermbev" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,6 @@
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2044,17 +2022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2E372-CFE5-4339-A040-B7D483DE6864}">
-  <dimension ref="A1:CG168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E86384-1D7A-4E42-AF3C-45D5B6ECD475}">
+  <dimension ref="A1:BS84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP37" workbookViewId="0">
-      <selection activeCell="BM86" sqref="BM86:BM116"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="70.90625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -2274,7 +2249,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -2283,16 +2258,10 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>75</v>
@@ -2337,10 +2306,10 @@
         <v>253</v>
       </c>
       <c r="V2" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="W2" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
@@ -2379,16 +2348,16 @@
         <v>253</v>
       </c>
       <c r="AJ2" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="AK2" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s">
         <v>79</v>
@@ -2421,10 +2390,10 @@
         <v>253</v>
       </c>
       <c r="AX2" t="s">
-        <v>297</v>
+        <v>92</v>
       </c>
       <c r="AY2" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="AZ2" t="s">
         <v>84</v>
@@ -2463,15 +2432,21 @@
         <v>253</v>
       </c>
       <c r="BL2" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="BM2" t="s">
-        <v>296</v>
+        <v>95</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -2480,16 +2455,16 @@
         <v>73</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
         <v>75</v>
@@ -2534,10 +2509,10 @@
         <v>253</v>
       </c>
       <c r="V3" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="W3" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="X3" t="s">
         <v>84</v>
@@ -2576,10 +2551,10 @@
         <v>253</v>
       </c>
       <c r="AJ3" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="AK3" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="AL3" t="s">
         <v>84</v>
@@ -2618,10 +2593,10 @@
         <v>253</v>
       </c>
       <c r="AX3" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="AY3" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="AZ3" t="s">
         <v>84</v>
@@ -2660,15 +2635,15 @@
         <v>253</v>
       </c>
       <c r="BL3" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="BM3" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -2677,16 +2652,16 @@
         <v>73</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
@@ -2731,10 +2706,10 @@
         <v>253</v>
       </c>
       <c r="V4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="W4" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="X4" t="s">
         <v>84</v>
@@ -2773,10 +2748,10 @@
         <v>253</v>
       </c>
       <c r="AJ4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="AK4" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="AL4" t="s">
         <v>84</v>
@@ -2815,10 +2790,10 @@
         <v>253</v>
       </c>
       <c r="AX4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="AY4" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="AZ4" t="s">
         <v>84</v>
@@ -2857,15 +2832,15 @@
         <v>253</v>
       </c>
       <c r="BL4" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="BM4" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2874,16 +2849,16 @@
         <v>73</v>
       </c>
       <c r="D5">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G5">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -2928,10 +2903,10 @@
         <v>253</v>
       </c>
       <c r="V5" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="W5" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="X5" t="s">
         <v>84</v>
@@ -2970,10 +2945,10 @@
         <v>253</v>
       </c>
       <c r="AJ5" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="AL5" t="s">
         <v>84</v>
@@ -3012,10 +2987,10 @@
         <v>253</v>
       </c>
       <c r="AX5" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="AY5" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="AZ5" t="s">
         <v>84</v>
@@ -3054,15 +3029,15 @@
         <v>253</v>
       </c>
       <c r="BL5" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="BM5" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -3071,16 +3046,16 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="G6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
         <v>75</v>
@@ -3125,10 +3100,10 @@
         <v>253</v>
       </c>
       <c r="V6" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="W6" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
         <v>84</v>
@@ -3167,10 +3142,10 @@
         <v>253</v>
       </c>
       <c r="AJ6" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s">
         <v>84</v>
@@ -3209,10 +3184,10 @@
         <v>253</v>
       </c>
       <c r="AX6" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="AY6" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
@@ -3251,15 +3226,15 @@
         <v>253</v>
       </c>
       <c r="BL6" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="BM6" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -3268,16 +3243,16 @@
         <v>73</v>
       </c>
       <c r="D7">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G7">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
         <v>75</v>
@@ -3322,10 +3297,10 @@
         <v>253</v>
       </c>
       <c r="V7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
         <v>84</v>
@@ -3364,10 +3339,10 @@
         <v>253</v>
       </c>
       <c r="AJ7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="AL7" t="s">
         <v>84</v>
@@ -3406,10 +3381,10 @@
         <v>253</v>
       </c>
       <c r="AX7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="AY7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
@@ -3448,15 +3423,15 @@
         <v>253</v>
       </c>
       <c r="BL7" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="BM7" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -3465,16 +3440,16 @@
         <v>73</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
         <v>75</v>
@@ -3519,10 +3494,10 @@
         <v>253</v>
       </c>
       <c r="V8" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="W8" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
         <v>84</v>
@@ -3561,10 +3536,10 @@
         <v>253</v>
       </c>
       <c r="AJ8" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="AK8" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="AL8" t="s">
         <v>84</v>
@@ -3603,10 +3578,10 @@
         <v>253</v>
       </c>
       <c r="AX8" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="AY8" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
@@ -3645,15 +3620,15 @@
         <v>253</v>
       </c>
       <c r="BL8" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="BM8" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -3662,16 +3637,16 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="G9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>75</v>
@@ -3716,10 +3691,10 @@
         <v>253</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="X9" t="s">
         <v>84</v>
@@ -3758,10 +3733,10 @@
         <v>253</v>
       </c>
       <c r="AJ9" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="AK9" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="AL9" t="s">
         <v>84</v>
@@ -3800,10 +3775,10 @@
         <v>253</v>
       </c>
       <c r="AX9" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="AY9" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="AZ9" t="s">
         <v>84</v>
@@ -3842,15 +3817,15 @@
         <v>253</v>
       </c>
       <c r="BL9" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="BM9" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -3859,16 +3834,16 @@
         <v>73</v>
       </c>
       <c r="D10">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G10">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
         <v>75</v>
@@ -3913,10 +3888,10 @@
         <v>253</v>
       </c>
       <c r="V10" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="X10" t="s">
         <v>84</v>
@@ -3955,10 +3930,10 @@
         <v>253</v>
       </c>
       <c r="AJ10" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="AK10" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="AL10" t="s">
         <v>84</v>
@@ -3997,10 +3972,10 @@
         <v>253</v>
       </c>
       <c r="AX10" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="AY10" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="AZ10" t="s">
         <v>84</v>
@@ -4039,15 +4014,15 @@
         <v>253</v>
       </c>
       <c r="BL10" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="BM10" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -4056,16 +4031,16 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="G11">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
@@ -4110,10 +4085,10 @@
         <v>253</v>
       </c>
       <c r="V11" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="X11" t="s">
         <v>84</v>
@@ -4152,10 +4127,10 @@
         <v>253</v>
       </c>
       <c r="AJ11" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="AK11" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AL11" t="s">
         <v>84</v>
@@ -4194,10 +4169,10 @@
         <v>253</v>
       </c>
       <c r="AX11" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="AY11" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AZ11" t="s">
         <v>84</v>
@@ -4236,15 +4211,15 @@
         <v>253</v>
       </c>
       <c r="BL11" t="s">
-        <v>121</v>
+        <v>371</v>
       </c>
       <c r="BM11" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -4253,16 +4228,16 @@
         <v>73</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="G12">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
         <v>75</v>
@@ -4307,10 +4282,10 @@
         <v>253</v>
       </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="W12" t="s">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="X12" t="s">
         <v>84</v>
@@ -4349,10 +4324,10 @@
         <v>253</v>
       </c>
       <c r="AJ12" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AK12" t="s">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="AL12" t="s">
         <v>84</v>
@@ -4391,10 +4366,10 @@
         <v>253</v>
       </c>
       <c r="AX12" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AY12" t="s">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
@@ -4433,15 +4408,15 @@
         <v>253</v>
       </c>
       <c r="BL12" t="s">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="BM12" t="s">
-        <v>105</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -4450,10 +4425,16 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>374</v>
+      </c>
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13">
+        <v>155</v>
       </c>
       <c r="H13" t="s">
         <v>75</v>
@@ -4498,10 +4479,10 @@
         <v>253</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="X13" t="s">
         <v>84</v>
@@ -4540,10 +4521,10 @@
         <v>253</v>
       </c>
       <c r="AJ13" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AK13" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AL13" t="s">
         <v>84</v>
@@ -4582,10 +4563,10 @@
         <v>253</v>
       </c>
       <c r="AX13" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AY13" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AZ13" t="s">
         <v>84</v>
@@ -4624,21 +4605,15 @@
         <v>253</v>
       </c>
       <c r="BL13" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="BM13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>89</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -4647,10 +4622,10 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F14" t="s">
         <v>139</v>
@@ -4701,10 +4676,10 @@
         <v>253</v>
       </c>
       <c r="V14" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="W14" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="X14" t="s">
         <v>84</v>
@@ -4743,10 +4718,10 @@
         <v>253</v>
       </c>
       <c r="AJ14" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="AK14" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="AL14" t="s">
         <v>84</v>
@@ -4785,10 +4760,10 @@
         <v>253</v>
       </c>
       <c r="AX14" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="AY14" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="AZ14" t="s">
         <v>84</v>
@@ -4827,15 +4802,15 @@
         <v>253</v>
       </c>
       <c r="BL14" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="BM14" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -4844,10 +4819,10 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
         <v>139</v>
@@ -4898,10 +4873,10 @@
         <v>253</v>
       </c>
       <c r="V15" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="W15" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="X15" t="s">
         <v>84</v>
@@ -4940,10 +4915,10 @@
         <v>253</v>
       </c>
       <c r="AJ15" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="AK15" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="AL15" t="s">
         <v>84</v>
@@ -4982,10 +4957,10 @@
         <v>253</v>
       </c>
       <c r="AX15" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="AY15" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="AZ15" t="s">
         <v>84</v>
@@ -5024,15 +4999,15 @@
         <v>253</v>
       </c>
       <c r="BL15" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="BM15" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -5041,16 +5016,16 @@
         <v>73</v>
       </c>
       <c r="D16">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="G16">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -5095,10 +5070,10 @@
         <v>253</v>
       </c>
       <c r="V16" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="W16" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="X16" t="s">
         <v>84</v>
@@ -5137,10 +5112,10 @@
         <v>253</v>
       </c>
       <c r="AJ16" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="AK16" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="AL16" t="s">
         <v>84</v>
@@ -5179,10 +5154,10 @@
         <v>253</v>
       </c>
       <c r="AX16" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="AY16" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="AZ16" t="s">
         <v>84</v>
@@ -5221,15 +5196,15 @@
         <v>253</v>
       </c>
       <c r="BL16" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="BM16" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -5238,16 +5213,16 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="G17">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -5292,10 +5267,10 @@
         <v>253</v>
       </c>
       <c r="V17" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="W17" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="X17" t="s">
         <v>84</v>
@@ -5334,10 +5309,10 @@
         <v>253</v>
       </c>
       <c r="AJ17" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="AK17" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="AL17" t="s">
         <v>84</v>
@@ -5376,10 +5351,10 @@
         <v>253</v>
       </c>
       <c r="AX17" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="AY17" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
@@ -5418,15 +5393,15 @@
         <v>253</v>
       </c>
       <c r="BL17" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="BM17" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -5435,10 +5410,10 @@
         <v>73</v>
       </c>
       <c r="D18">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
         <v>139</v>
@@ -5489,10 +5464,10 @@
         <v>253</v>
       </c>
       <c r="V18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="W18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="X18" t="s">
         <v>84</v>
@@ -5531,10 +5506,10 @@
         <v>253</v>
       </c>
       <c r="AJ18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AK18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AL18" t="s">
         <v>84</v>
@@ -5573,10 +5548,10 @@
         <v>253</v>
       </c>
       <c r="AX18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AY18" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AZ18" t="s">
         <v>84</v>
@@ -5615,15 +5590,15 @@
         <v>253</v>
       </c>
       <c r="BL18" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="BM18" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -5632,16 +5607,16 @@
         <v>73</v>
       </c>
       <c r="D19">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="G19">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
         <v>75</v>
@@ -5686,10 +5661,10 @@
         <v>253</v>
       </c>
       <c r="V19" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="W19" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="X19" t="s">
         <v>84</v>
@@ -5728,10 +5703,10 @@
         <v>253</v>
       </c>
       <c r="AJ19" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="AK19" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="AL19" t="s">
         <v>84</v>
@@ -5770,10 +5745,10 @@
         <v>253</v>
       </c>
       <c r="AX19" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="AY19" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="AZ19" t="s">
         <v>84</v>
@@ -5812,15 +5787,15 @@
         <v>253</v>
       </c>
       <c r="BL19" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="BM19" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -5829,16 +5804,16 @@
         <v>73</v>
       </c>
       <c r="D20">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
         <v>75</v>
@@ -5883,10 +5858,10 @@
         <v>253</v>
       </c>
       <c r="V20" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="W20" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="X20" t="s">
         <v>84</v>
@@ -5925,10 +5900,10 @@
         <v>253</v>
       </c>
       <c r="AJ20" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="AL20" t="s">
         <v>84</v>
@@ -5967,10 +5942,10 @@
         <v>253</v>
       </c>
       <c r="AX20" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="AY20" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="AZ20" t="s">
         <v>84</v>
@@ -6009,15 +5984,15 @@
         <v>253</v>
       </c>
       <c r="BL20" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="BM20" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -6026,16 +6001,16 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
         <v>75</v>
@@ -6080,10 +6055,10 @@
         <v>253</v>
       </c>
       <c r="V21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="W21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="X21" t="s">
         <v>84</v>
@@ -6122,10 +6097,10 @@
         <v>253</v>
       </c>
       <c r="AJ21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AK21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AL21" t="s">
         <v>84</v>
@@ -6164,10 +6139,10 @@
         <v>253</v>
       </c>
       <c r="AX21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AY21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AZ21" t="s">
         <v>84</v>
@@ -6206,15 +6181,15 @@
         <v>253</v>
       </c>
       <c r="BL21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="BM21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -6223,16 +6198,16 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G22">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
         <v>75</v>
@@ -6277,10 +6252,10 @@
         <v>253</v>
       </c>
       <c r="V22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="W22" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="X22" t="s">
         <v>84</v>
@@ -6319,10 +6294,10 @@
         <v>253</v>
       </c>
       <c r="AJ22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="AK22" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="AL22" t="s">
         <v>84</v>
@@ -6361,10 +6336,10 @@
         <v>253</v>
       </c>
       <c r="AX22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="AY22" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="AZ22" t="s">
         <v>84</v>
@@ -6403,15 +6378,15 @@
         <v>253</v>
       </c>
       <c r="BL22" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="BM22" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -6420,16 +6395,16 @@
         <v>73</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G23">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
         <v>75</v>
@@ -6474,10 +6449,10 @@
         <v>253</v>
       </c>
       <c r="V23" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="W23" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="X23" t="s">
         <v>84</v>
@@ -6516,10 +6491,10 @@
         <v>253</v>
       </c>
       <c r="AJ23" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s">
         <v>84</v>
@@ -6558,10 +6533,10 @@
         <v>253</v>
       </c>
       <c r="AX23" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="AY23" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
@@ -6600,15 +6575,15 @@
         <v>253</v>
       </c>
       <c r="BL23" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="BM23" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -6617,16 +6592,16 @@
         <v>73</v>
       </c>
       <c r="D24">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="G24">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
         <v>75</v>
@@ -6671,10 +6646,10 @@
         <v>253</v>
       </c>
       <c r="V24" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
         <v>84</v>
@@ -6713,10 +6688,10 @@
         <v>253</v>
       </c>
       <c r="AJ24" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AK24" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s">
         <v>84</v>
@@ -6755,10 +6730,10 @@
         <v>253</v>
       </c>
       <c r="AX24" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AY24" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="AZ24" t="s">
         <v>84</v>
@@ -6797,15 +6772,15 @@
         <v>253</v>
       </c>
       <c r="BL24" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="BM24" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -6814,16 +6789,16 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="G25">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
         <v>75</v>
@@ -6868,10 +6843,10 @@
         <v>253</v>
       </c>
       <c r="V25" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="W25" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
         <v>84</v>
@@ -6910,10 +6885,10 @@
         <v>253</v>
       </c>
       <c r="AJ25" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s">
         <v>84</v>
@@ -6952,10 +6927,10 @@
         <v>253</v>
       </c>
       <c r="AX25" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AY25" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="AZ25" t="s">
         <v>84</v>
@@ -6994,15 +6969,15 @@
         <v>253</v>
       </c>
       <c r="BL25" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="BM25" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -7011,16 +6986,16 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="G26">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -7065,10 +7040,10 @@
         <v>253</v>
       </c>
       <c r="V26" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="W26" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="X26" t="s">
         <v>84</v>
@@ -7107,10 +7082,10 @@
         <v>253</v>
       </c>
       <c r="AJ26" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s">
         <v>84</v>
@@ -7149,10 +7124,10 @@
         <v>253</v>
       </c>
       <c r="AX26" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="AY26" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="AZ26" t="s">
         <v>84</v>
@@ -7191,15 +7166,15 @@
         <v>253</v>
       </c>
       <c r="BL26" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="BM26" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -7208,16 +7183,16 @@
         <v>73</v>
       </c>
       <c r="D27">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27">
         <v>180</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27">
-        <v>189</v>
       </c>
       <c r="H27" t="s">
         <v>75</v>
@@ -7262,10 +7237,10 @@
         <v>253</v>
       </c>
       <c r="V27" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="W27" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="X27" t="s">
         <v>84</v>
@@ -7304,10 +7279,10 @@
         <v>253</v>
       </c>
       <c r="AJ27" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AK27" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s">
         <v>84</v>
@@ -7346,10 +7321,10 @@
         <v>253</v>
       </c>
       <c r="AX27" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AY27" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="AZ27" t="s">
         <v>84</v>
@@ -7388,15 +7363,15 @@
         <v>253</v>
       </c>
       <c r="BL27" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="BM27" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -7405,16 +7380,16 @@
         <v>73</v>
       </c>
       <c r="D28">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
         <v>75</v>
@@ -7459,10 +7434,10 @@
         <v>253</v>
       </c>
       <c r="V28" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="W28" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="X28" t="s">
         <v>84</v>
@@ -7501,10 +7476,10 @@
         <v>253</v>
       </c>
       <c r="AJ28" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AK28" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s">
         <v>84</v>
@@ -7543,10 +7518,10 @@
         <v>253</v>
       </c>
       <c r="AX28" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="AY28" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="AZ28" t="s">
         <v>84</v>
@@ -7585,15 +7560,15 @@
         <v>253</v>
       </c>
       <c r="BL28" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="BM28" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -7602,16 +7577,16 @@
         <v>73</v>
       </c>
       <c r="D29">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G29">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
         <v>75</v>
@@ -7656,10 +7631,10 @@
         <v>253</v>
       </c>
       <c r="V29" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="W29" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="X29" t="s">
         <v>84</v>
@@ -7698,10 +7673,10 @@
         <v>253</v>
       </c>
       <c r="AJ29" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s">
         <v>84</v>
@@ -7740,10 +7715,10 @@
         <v>253</v>
       </c>
       <c r="AX29" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="AY29" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="AZ29" t="s">
         <v>84</v>
@@ -7782,15 +7757,15 @@
         <v>253</v>
       </c>
       <c r="BL29" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="BM29" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -7799,16 +7774,16 @@
         <v>73</v>
       </c>
       <c r="D30">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="G30">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
         <v>75</v>
@@ -7853,10 +7828,10 @@
         <v>253</v>
       </c>
       <c r="V30" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="W30" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="X30" t="s">
         <v>84</v>
@@ -7895,10 +7870,10 @@
         <v>253</v>
       </c>
       <c r="AJ30" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="AK30" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AL30" t="s">
         <v>84</v>
@@ -7937,10 +7912,10 @@
         <v>253</v>
       </c>
       <c r="AX30" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="AY30" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AZ30" t="s">
         <v>84</v>
@@ -7979,15 +7954,15 @@
         <v>253</v>
       </c>
       <c r="BL30" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="BM30" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -7996,16 +7971,16 @@
         <v>73</v>
       </c>
       <c r="D31">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="G31">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
         <v>75</v>
@@ -8050,10 +8025,10 @@
         <v>253</v>
       </c>
       <c r="V31" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="W31" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="X31" t="s">
         <v>84</v>
@@ -8092,10 +8067,10 @@
         <v>253</v>
       </c>
       <c r="AJ31" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s">
         <v>84</v>
@@ -8134,10 +8109,10 @@
         <v>253</v>
       </c>
       <c r="AX31" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="AY31" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="AZ31" t="s">
         <v>84</v>
@@ -8176,15 +8151,15 @@
         <v>253</v>
       </c>
       <c r="BL31" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="BM31" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -8193,16 +8168,16 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="G32">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
         <v>75</v>
@@ -8247,10 +8222,10 @@
         <v>253</v>
       </c>
       <c r="V32" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="W32" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="X32" t="s">
         <v>84</v>
@@ -8289,10 +8264,10 @@
         <v>253</v>
       </c>
       <c r="AJ32" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s">
         <v>84</v>
@@ -8331,10 +8306,10 @@
         <v>253</v>
       </c>
       <c r="AX32" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="AY32" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="AZ32" t="s">
         <v>84</v>
@@ -8373,15 +8348,15 @@
         <v>253</v>
       </c>
       <c r="BL32" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="BM32" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -8390,16 +8365,16 @@
         <v>73</v>
       </c>
       <c r="D33">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="G33">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H33" t="s">
         <v>75</v>
@@ -8444,10 +8419,10 @@
         <v>253</v>
       </c>
       <c r="V33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="W33" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X33" t="s">
         <v>84</v>
@@ -8486,10 +8461,10 @@
         <v>253</v>
       </c>
       <c r="AJ33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s">
         <v>84</v>
@@ -8528,10 +8503,10 @@
         <v>253</v>
       </c>
       <c r="AX33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AY33" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AZ33" t="s">
         <v>84</v>
@@ -8570,15 +8545,15 @@
         <v>253</v>
       </c>
       <c r="BL33" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="BM33" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
@@ -8587,16 +8562,16 @@
         <v>73</v>
       </c>
       <c r="D34">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G34">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H34" t="s">
         <v>75</v>
@@ -8641,10 +8616,10 @@
         <v>253</v>
       </c>
       <c r="V34" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="W34" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X34" t="s">
         <v>84</v>
@@ -8683,10 +8658,10 @@
         <v>253</v>
       </c>
       <c r="AJ34" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AK34" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s">
         <v>84</v>
@@ -8725,10 +8700,10 @@
         <v>253</v>
       </c>
       <c r="AX34" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AY34" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AZ34" t="s">
         <v>84</v>
@@ -8767,15 +8742,15 @@
         <v>253</v>
       </c>
       <c r="BL34" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="BM34" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -8784,16 +8759,16 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G35">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H35" t="s">
         <v>75</v>
@@ -8838,10 +8813,10 @@
         <v>253</v>
       </c>
       <c r="V35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="W35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s">
         <v>84</v>
@@ -8880,10 +8855,10 @@
         <v>253</v>
       </c>
       <c r="AJ35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AK35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AL35" t="s">
         <v>84</v>
@@ -8922,10 +8897,10 @@
         <v>253</v>
       </c>
       <c r="AX35" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AY35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AZ35" t="s">
         <v>84</v>
@@ -8964,15 +8939,15 @@
         <v>253</v>
       </c>
       <c r="BL35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="BM35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -8981,16 +8956,16 @@
         <v>73</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="G36">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
         <v>75</v>
@@ -9035,10 +9010,10 @@
         <v>253</v>
       </c>
       <c r="V36" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="W36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="X36" t="s">
         <v>84</v>
@@ -9077,10 +9052,10 @@
         <v>253</v>
       </c>
       <c r="AJ36" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AK36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s">
         <v>84</v>
@@ -9119,10 +9094,10 @@
         <v>253</v>
       </c>
       <c r="AX36" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AY36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AZ36" t="s">
         <v>84</v>
@@ -9161,15 +9136,15 @@
         <v>253</v>
       </c>
       <c r="BL36" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BM36" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -9178,16 +9153,16 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G37">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
         <v>75</v>
@@ -9232,10 +9207,10 @@
         <v>253</v>
       </c>
       <c r="V37" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="W37" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="X37" t="s">
         <v>84</v>
@@ -9274,10 +9249,10 @@
         <v>253</v>
       </c>
       <c r="AJ37" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AK37" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s">
         <v>84</v>
@@ -9316,10 +9291,10 @@
         <v>253</v>
       </c>
       <c r="AX37" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AY37" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AZ37" t="s">
         <v>84</v>
@@ -9358,15 +9333,15 @@
         <v>253</v>
       </c>
       <c r="BL37" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BM37" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -9375,16 +9350,16 @@
         <v>73</v>
       </c>
       <c r="D38">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="G38">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
         <v>75</v>
@@ -9429,10 +9404,10 @@
         <v>253</v>
       </c>
       <c r="V38" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="W38" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="X38" t="s">
         <v>84</v>
@@ -9471,10 +9446,10 @@
         <v>253</v>
       </c>
       <c r="AJ38" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AK38" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s">
         <v>84</v>
@@ -9513,10 +9488,10 @@
         <v>253</v>
       </c>
       <c r="AX38" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AY38" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AZ38" t="s">
         <v>84</v>
@@ -9555,15 +9530,15 @@
         <v>253</v>
       </c>
       <c r="BL38" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="BM38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -9572,16 +9547,16 @@
         <v>73</v>
       </c>
       <c r="D39">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="G39">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H39" t="s">
         <v>75</v>
@@ -9626,10 +9601,10 @@
         <v>253</v>
       </c>
       <c r="V39" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="W39" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="X39" t="s">
         <v>84</v>
@@ -9668,10 +9643,10 @@
         <v>253</v>
       </c>
       <c r="AJ39" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AK39" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AL39" t="s">
         <v>84</v>
@@ -9710,10 +9685,10 @@
         <v>253</v>
       </c>
       <c r="AX39" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AY39" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AZ39" t="s">
         <v>84</v>
@@ -9752,15 +9727,15 @@
         <v>253</v>
       </c>
       <c r="BL39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="BM39" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
         <v>72</v>
@@ -9769,16 +9744,16 @@
         <v>73</v>
       </c>
       <c r="D40">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G40">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
         <v>75</v>
@@ -9823,10 +9798,10 @@
         <v>253</v>
       </c>
       <c r="V40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="W40" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="X40" t="s">
         <v>84</v>
@@ -9865,10 +9840,10 @@
         <v>253</v>
       </c>
       <c r="AJ40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s">
         <v>84</v>
@@ -9907,10 +9882,10 @@
         <v>253</v>
       </c>
       <c r="AX40" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AY40" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AZ40" t="s">
         <v>84</v>
@@ -9949,15 +9924,15 @@
         <v>253</v>
       </c>
       <c r="BL40" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="BM40" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
@@ -9966,16 +9941,16 @@
         <v>73</v>
       </c>
       <c r="D41">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
         <v>75</v>
@@ -10020,10 +9995,10 @@
         <v>253</v>
       </c>
       <c r="V41" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="W41" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="X41" t="s">
         <v>84</v>
@@ -10062,10 +10037,10 @@
         <v>253</v>
       </c>
       <c r="AJ41" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="AK41" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="AL41" t="s">
         <v>84</v>
@@ -10104,10 +10079,10 @@
         <v>253</v>
       </c>
       <c r="AX41" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="AY41" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="AZ41" t="s">
         <v>84</v>
@@ -10146,15 +10121,15 @@
         <v>253</v>
       </c>
       <c r="BL41" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="BM41" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -10163,16 +10138,16 @@
         <v>73</v>
       </c>
       <c r="D42">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G42">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
         <v>75</v>
@@ -10217,10 +10192,10 @@
         <v>253</v>
       </c>
       <c r="V42" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="W42" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="X42" t="s">
         <v>84</v>
@@ -10259,10 +10234,10 @@
         <v>253</v>
       </c>
       <c r="AJ42" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AK42" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AL42" t="s">
         <v>84</v>
@@ -10301,10 +10276,10 @@
         <v>253</v>
       </c>
       <c r="AX42" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AY42" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AZ42" t="s">
         <v>84</v>
@@ -10343,15 +10318,15 @@
         <v>253</v>
       </c>
       <c r="BL42" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="BM42" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
         <v>72</v>
@@ -10360,16 +10335,16 @@
         <v>73</v>
       </c>
       <c r="D43">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="G43">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
         <v>75</v>
@@ -10414,10 +10389,10 @@
         <v>253</v>
       </c>
       <c r="V43" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="W43" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="X43" t="s">
         <v>84</v>
@@ -10456,10 +10431,10 @@
         <v>253</v>
       </c>
       <c r="AJ43" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AK43" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AL43" t="s">
         <v>84</v>
@@ -10498,10 +10473,10 @@
         <v>253</v>
       </c>
       <c r="AX43" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AY43" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AZ43" t="s">
         <v>84</v>
@@ -10540,15 +10515,15 @@
         <v>253</v>
       </c>
       <c r="BL43" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="BM43" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
@@ -10557,16 +10532,16 @@
         <v>73</v>
       </c>
       <c r="D44">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="G44">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
         <v>75</v>
@@ -10611,10 +10586,10 @@
         <v>253</v>
       </c>
       <c r="V44" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="W44" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="X44" t="s">
         <v>84</v>
@@ -10653,10 +10628,10 @@
         <v>253</v>
       </c>
       <c r="AJ44" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AK44" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AL44" t="s">
         <v>84</v>
@@ -10695,10 +10670,10 @@
         <v>253</v>
       </c>
       <c r="AX44" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="AY44" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AZ44" t="s">
         <v>84</v>
@@ -10737,15 +10712,15 @@
         <v>253</v>
       </c>
       <c r="BL44" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="BM44" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
@@ -10754,16 +10729,16 @@
         <v>73</v>
       </c>
       <c r="D45">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G45">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s">
         <v>75</v>
@@ -10808,10 +10783,10 @@
         <v>253</v>
       </c>
       <c r="V45" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="W45" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="X45" t="s">
         <v>84</v>
@@ -10850,10 +10825,10 @@
         <v>253</v>
       </c>
       <c r="AJ45" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="AK45" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AL45" t="s">
         <v>84</v>
@@ -10892,10 +10867,10 @@
         <v>253</v>
       </c>
       <c r="AX45" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="AY45" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AZ45" t="s">
         <v>84</v>
@@ -10934,15 +10909,15 @@
         <v>253</v>
       </c>
       <c r="BL45" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="BM45" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
         <v>72</v>
@@ -10951,16 +10926,16 @@
         <v>73</v>
       </c>
       <c r="D46">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="H46" t="s">
         <v>75</v>
@@ -11005,10 +10980,10 @@
         <v>253</v>
       </c>
       <c r="V46" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="W46" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="X46" t="s">
         <v>84</v>
@@ -11047,10 +11022,10 @@
         <v>253</v>
       </c>
       <c r="AJ46" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="AK46" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="AL46" t="s">
         <v>84</v>
@@ -11089,10 +11064,10 @@
         <v>253</v>
       </c>
       <c r="AX46" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="AY46" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="AZ46" t="s">
         <v>84</v>
@@ -11131,15 +11106,15 @@
         <v>253</v>
       </c>
       <c r="BL46" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="BM46" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
@@ -11148,16 +11123,16 @@
         <v>73</v>
       </c>
       <c r="D47">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>332</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="H47" t="s">
         <v>75</v>
@@ -11202,10 +11177,10 @@
         <v>253</v>
       </c>
       <c r="V47" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="W47" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="X47" t="s">
         <v>84</v>
@@ -11244,10 +11219,10 @@
         <v>253</v>
       </c>
       <c r="AJ47" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="AK47" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="AL47" t="s">
         <v>84</v>
@@ -11286,10 +11261,10 @@
         <v>253</v>
       </c>
       <c r="AX47" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="AY47" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="AZ47" t="s">
         <v>84</v>
@@ -11328,15 +11303,15 @@
         <v>253</v>
       </c>
       <c r="BL47" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="BM47" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
@@ -11345,16 +11320,16 @@
         <v>73</v>
       </c>
       <c r="D48">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G48">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H48" t="s">
         <v>75</v>
@@ -11399,10 +11374,10 @@
         <v>253</v>
       </c>
       <c r="V48" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="W48" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="X48" t="s">
         <v>84</v>
@@ -11441,10 +11416,10 @@
         <v>253</v>
       </c>
       <c r="AJ48" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="AK48" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AL48" t="s">
         <v>84</v>
@@ -11483,10 +11458,10 @@
         <v>253</v>
       </c>
       <c r="AX48" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="AY48" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AZ48" t="s">
         <v>84</v>
@@ -11525,15 +11500,15 @@
         <v>253</v>
       </c>
       <c r="BL48" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="BM48" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -11542,16 +11517,16 @@
         <v>73</v>
       </c>
       <c r="D49">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="G49">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H49" t="s">
         <v>75</v>
@@ -11596,10 +11571,10 @@
         <v>253</v>
       </c>
       <c r="V49" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="W49" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s">
         <v>84</v>
@@ -11638,10 +11613,10 @@
         <v>253</v>
       </c>
       <c r="AJ49" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="AK49" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AL49" t="s">
         <v>84</v>
@@ -11680,10 +11655,10 @@
         <v>253</v>
       </c>
       <c r="AX49" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="AY49" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AZ49" t="s">
         <v>84</v>
@@ -11722,15 +11697,15 @@
         <v>253</v>
       </c>
       <c r="BL49" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="BM49" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
@@ -11739,16 +11714,16 @@
         <v>73</v>
       </c>
       <c r="D50">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="G50">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
         <v>75</v>
@@ -11793,10 +11768,10 @@
         <v>253</v>
       </c>
       <c r="V50" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="W50" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="X50" t="s">
         <v>84</v>
@@ -11835,10 +11810,10 @@
         <v>253</v>
       </c>
       <c r="AJ50" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="AK50" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AL50" t="s">
         <v>84</v>
@@ -11877,10 +11852,10 @@
         <v>253</v>
       </c>
       <c r="AX50" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="AY50" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AZ50" t="s">
         <v>84</v>
@@ -11919,15 +11894,15 @@
         <v>253</v>
       </c>
       <c r="BL50" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="BM50" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -11936,16 +11911,16 @@
         <v>73</v>
       </c>
       <c r="D51">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="G51">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
         <v>75</v>
@@ -11990,10 +11965,10 @@
         <v>253</v>
       </c>
       <c r="V51" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="W51" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s">
         <v>84</v>
@@ -12032,10 +12007,10 @@
         <v>253</v>
       </c>
       <c r="AJ51" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="AK51" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="AL51" t="s">
         <v>84</v>
@@ -12074,10 +12049,10 @@
         <v>253</v>
       </c>
       <c r="AX51" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="AY51" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="AZ51" t="s">
         <v>84</v>
@@ -12116,15 +12091,15 @@
         <v>253</v>
       </c>
       <c r="BL51" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="BM51" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="B52" t="s">
         <v>72</v>
@@ -12133,16 +12108,16 @@
         <v>73</v>
       </c>
       <c r="D52">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="G52">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H52" t="s">
         <v>75</v>
@@ -12187,10 +12162,10 @@
         <v>253</v>
       </c>
       <c r="V52" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="W52" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="X52" t="s">
         <v>84</v>
@@ -12229,10 +12204,10 @@
         <v>253</v>
       </c>
       <c r="AJ52" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="AK52" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="AL52" t="s">
         <v>84</v>
@@ -12271,10 +12246,10 @@
         <v>253</v>
       </c>
       <c r="AX52" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="AY52" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="AZ52" t="s">
         <v>84</v>
@@ -12313,15 +12288,15 @@
         <v>253</v>
       </c>
       <c r="BL52" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="BM52" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
@@ -12330,16 +12305,16 @@
         <v>73</v>
       </c>
       <c r="D53">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="G53">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
         <v>75</v>
@@ -12384,10 +12359,10 @@
         <v>253</v>
       </c>
       <c r="V53" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="W53" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="X53" t="s">
         <v>84</v>
@@ -12426,10 +12401,10 @@
         <v>253</v>
       </c>
       <c r="AJ53" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="AK53" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="AL53" t="s">
         <v>84</v>
@@ -12468,10 +12443,10 @@
         <v>253</v>
       </c>
       <c r="AX53" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="AY53" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="AZ53" t="s">
         <v>84</v>
@@ -12510,15 +12485,15 @@
         <v>253</v>
       </c>
       <c r="BL53" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="BM53" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
@@ -12527,16 +12502,16 @@
         <v>73</v>
       </c>
       <c r="D54">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G54">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
         <v>75</v>
@@ -12581,10 +12556,10 @@
         <v>253</v>
       </c>
       <c r="V54" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="W54" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="X54" t="s">
         <v>84</v>
@@ -12623,10 +12598,10 @@
         <v>253</v>
       </c>
       <c r="AJ54" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="AK54" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="AL54" t="s">
         <v>84</v>
@@ -12665,10 +12640,10 @@
         <v>253</v>
       </c>
       <c r="AX54" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="AY54" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="AZ54" t="s">
         <v>84</v>
@@ -12707,15 +12682,15 @@
         <v>253</v>
       </c>
       <c r="BL54" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="BM54" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
@@ -12724,16 +12699,16 @@
         <v>73</v>
       </c>
       <c r="D55">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="G55">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H55" t="s">
         <v>75</v>
@@ -12778,10 +12753,10 @@
         <v>253</v>
       </c>
       <c r="V55" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="W55" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="X55" t="s">
         <v>84</v>
@@ -12820,10 +12795,10 @@
         <v>253</v>
       </c>
       <c r="AJ55" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AK55" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="AL55" t="s">
         <v>84</v>
@@ -12862,10 +12837,10 @@
         <v>253</v>
       </c>
       <c r="AX55" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AY55" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="AZ55" t="s">
         <v>84</v>
@@ -12904,15 +12879,15 @@
         <v>253</v>
       </c>
       <c r="BL55" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="BM55" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
@@ -12921,16 +12896,16 @@
         <v>73</v>
       </c>
       <c r="D56">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="G56">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="H56" t="s">
         <v>75</v>
@@ -12975,10 +12950,10 @@
         <v>253</v>
       </c>
       <c r="V56" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="W56" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="X56" t="s">
         <v>84</v>
@@ -13017,10 +12992,10 @@
         <v>253</v>
       </c>
       <c r="AJ56" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AK56" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="AL56" t="s">
         <v>84</v>
@@ -13059,10 +13034,10 @@
         <v>253</v>
       </c>
       <c r="AX56" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="AY56" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="AZ56" t="s">
         <v>84</v>
@@ -13101,15 +13076,15 @@
         <v>253</v>
       </c>
       <c r="BL56" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="BM56" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -13118,10 +13093,16 @@
         <v>73</v>
       </c>
       <c r="D57">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>324</v>
+      </c>
+      <c r="F57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57">
+        <v>203</v>
       </c>
       <c r="H57" t="s">
         <v>75</v>
@@ -13166,10 +13147,10 @@
         <v>253</v>
       </c>
       <c r="V57" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="W57" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="X57" t="s">
         <v>84</v>
@@ -13208,16 +13189,16 @@
         <v>253</v>
       </c>
       <c r="AJ57" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="AK57" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="AL57" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM57" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AN57" t="s">
         <v>79</v>
@@ -13250,10 +13231,10 @@
         <v>253</v>
       </c>
       <c r="AX57" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="AY57" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="AZ57" t="s">
         <v>84</v>
@@ -13292,21 +13273,15 @@
         <v>253</v>
       </c>
       <c r="BL57" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="BM57" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO57" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP57" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -13315,16 +13290,16 @@
         <v>73</v>
       </c>
       <c r="D58">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G58">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="H58" t="s">
         <v>75</v>
@@ -13369,10 +13344,10 @@
         <v>253</v>
       </c>
       <c r="V58" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="W58" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="X58" t="s">
         <v>84</v>
@@ -13411,10 +13386,10 @@
         <v>253</v>
       </c>
       <c r="AJ58" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AK58" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AL58" t="s">
         <v>84</v>
@@ -13453,10 +13428,10 @@
         <v>253</v>
       </c>
       <c r="AX58" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AY58" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AZ58" t="s">
         <v>84</v>
@@ -13495,15 +13470,15 @@
         <v>253</v>
       </c>
       <c r="BL58" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="BM58" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
@@ -13512,16 +13487,16 @@
         <v>73</v>
       </c>
       <c r="D59">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
+        <v>318</v>
+      </c>
+      <c r="F59" t="s">
         <v>167</v>
       </c>
-      <c r="E59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" t="s">
-        <v>106</v>
-      </c>
       <c r="G59">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
         <v>75</v>
@@ -13566,10 +13541,10 @@
         <v>253</v>
       </c>
       <c r="V59" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="W59" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="X59" t="s">
         <v>84</v>
@@ -13608,10 +13583,10 @@
         <v>253</v>
       </c>
       <c r="AJ59" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AK59" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AL59" t="s">
         <v>84</v>
@@ -13650,10 +13625,10 @@
         <v>253</v>
       </c>
       <c r="AX59" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AY59" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AZ59" t="s">
         <v>84</v>
@@ -13692,15 +13667,15 @@
         <v>253</v>
       </c>
       <c r="BL59" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="BM59" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
@@ -13709,16 +13684,16 @@
         <v>73</v>
       </c>
       <c r="D60">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="G60">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
         <v>75</v>
@@ -13763,10 +13738,10 @@
         <v>253</v>
       </c>
       <c r="V60" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="W60" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="X60" t="s">
         <v>84</v>
@@ -13805,10 +13780,10 @@
         <v>253</v>
       </c>
       <c r="AJ60" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AK60" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AL60" t="s">
         <v>84</v>
@@ -13847,10 +13822,10 @@
         <v>253</v>
       </c>
       <c r="AX60" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AY60" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AZ60" t="s">
         <v>84</v>
@@ -13889,15 +13864,15 @@
         <v>253</v>
       </c>
       <c r="BL60" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="BM60" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -13906,16 +13881,16 @@
         <v>73</v>
       </c>
       <c r="D61">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G61">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H61" t="s">
         <v>75</v>
@@ -13960,10 +13935,10 @@
         <v>253</v>
       </c>
       <c r="V61" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="W61" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="X61" t="s">
         <v>84</v>
@@ -14002,10 +13977,10 @@
         <v>253</v>
       </c>
       <c r="AJ61" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AK61" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AL61" t="s">
         <v>84</v>
@@ -14044,10 +14019,10 @@
         <v>253</v>
       </c>
       <c r="AX61" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AY61" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="AZ61" t="s">
         <v>84</v>
@@ -14086,15 +14061,15 @@
         <v>253</v>
       </c>
       <c r="BL61" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="BM61" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -14103,16 +14078,16 @@
         <v>73</v>
       </c>
       <c r="D62">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>330</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G62">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
         <v>75</v>
@@ -14157,10 +14132,10 @@
         <v>253</v>
       </c>
       <c r="V62" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="W62" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="X62" t="s">
         <v>84</v>
@@ -14199,10 +14174,10 @@
         <v>253</v>
       </c>
       <c r="AJ62" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AK62" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="AL62" t="s">
         <v>84</v>
@@ -14241,10 +14216,10 @@
         <v>253</v>
       </c>
       <c r="AX62" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AY62" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="AZ62" t="s">
         <v>84</v>
@@ -14283,15 +14258,15 @@
         <v>253</v>
       </c>
       <c r="BL62" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="BM62" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -14300,16 +14275,16 @@
         <v>73</v>
       </c>
       <c r="D63">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G63">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
         <v>75</v>
@@ -14354,10 +14329,10 @@
         <v>253</v>
       </c>
       <c r="V63" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="X63" t="s">
         <v>84</v>
@@ -14396,10 +14371,10 @@
         <v>253</v>
       </c>
       <c r="AJ63" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AK63" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="AL63" t="s">
         <v>84</v>
@@ -14438,10 +14413,10 @@
         <v>253</v>
       </c>
       <c r="AX63" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AY63" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="AZ63" t="s">
         <v>84</v>
@@ -14480,15 +14455,15 @@
         <v>253</v>
       </c>
       <c r="BL63" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="BM63" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -14497,10 +14472,10 @@
         <v>73</v>
       </c>
       <c r="D64">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
         <v>100</v>
@@ -14683,9 +14658,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -14694,16 +14669,16 @@
         <v>73</v>
       </c>
       <c r="D65">
+        <v>207</v>
+      </c>
+      <c r="E65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65">
         <v>206</v>
-      </c>
-      <c r="E65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65">
-        <v>168</v>
       </c>
       <c r="H65" t="s">
         <v>75</v>
@@ -14880,9 +14855,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -14891,10 +14866,10 @@
         <v>73</v>
       </c>
       <c r="D66">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
         <v>115</v>
@@ -15077,9 +15052,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -15088,10 +15063,10 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -15274,9 +15249,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
@@ -15285,10 +15260,10 @@
         <v>73</v>
       </c>
       <c r="D68">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -15471,9 +15446,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -15482,10 +15457,10 @@
         <v>73</v>
       </c>
       <c r="D69">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F69" t="s">
         <v>115</v>
@@ -15668,9 +15643,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -15679,16 +15654,16 @@
         <v>73</v>
       </c>
       <c r="D70">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G70">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="H70" t="s">
         <v>75</v>
@@ -15865,9 +15840,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -15876,16 +15851,16 @@
         <v>73</v>
       </c>
       <c r="D71">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G71">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="H71" t="s">
         <v>75</v>
@@ -16062,9 +16037,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -16073,10 +16048,10 @@
         <v>73</v>
       </c>
       <c r="D72">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F72" t="s">
         <v>129</v>
@@ -16259,9 +16234,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -16270,16 +16245,16 @@
         <v>73</v>
       </c>
       <c r="D73">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="G73">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="H73" t="s">
         <v>75</v>
@@ -16456,9 +16431,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -16467,16 +16442,16 @@
         <v>73</v>
       </c>
       <c r="D74">
+        <v>226</v>
+      </c>
+      <c r="E74" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74">
         <v>221</v>
-      </c>
-      <c r="E74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74">
-        <v>168</v>
       </c>
       <c r="H74" t="s">
         <v>75</v>
@@ -16653,9 +16628,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
@@ -16664,10 +16639,10 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F75" t="s">
         <v>123</v>
@@ -16850,9 +16825,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
@@ -16861,10 +16836,10 @@
         <v>73</v>
       </c>
       <c r="D76">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
         <v>123</v>
@@ -17047,9 +17022,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
@@ -17058,10 +17033,10 @@
         <v>73</v>
       </c>
       <c r="D77">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
         <v>123</v>
@@ -17244,9 +17219,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
         <v>72</v>
@@ -17255,10 +17230,10 @@
         <v>73</v>
       </c>
       <c r="D78">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
         <v>123</v>
@@ -17441,9 +17416,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
         <v>72</v>
@@ -17452,16 +17427,10 @@
         <v>73</v>
       </c>
       <c r="D79">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" t="s">
-        <v>123</v>
-      </c>
-      <c r="G79">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s">
         <v>75</v>
@@ -17506,10 +17475,10 @@
         <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W79" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X79" t="s">
         <v>84</v>
@@ -17548,10 +17517,10 @@
         <v>253</v>
       </c>
       <c r="AJ79" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AK79" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AL79" t="s">
         <v>84</v>
@@ -17590,10 +17559,10 @@
         <v>253</v>
       </c>
       <c r="AX79" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AY79" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AZ79" t="s">
         <v>84</v>
@@ -17632,13 +17601,19 @@
         <v>253</v>
       </c>
       <c r="BL79" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="BM79" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="BO79" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP79" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -17829,7 +17804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -18026,7 +18001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -18223,7 +18198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -18420,7 +18395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -18617,2160 +18592,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A86" t="str" cm="1">
-        <f t="array" ref="A86:A168">_xlfn.UNIQUE(A2:A84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/9942fa2d-9e56-4a0e-914b-7f18ecd50f65</v>
-      </c>
-      <c r="B86" t="str" cm="1">
-        <f t="array" ref="B86">_xlfn.UNIQUE(B2:B84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/0a74f373-7382-405d-99ec-50e44e6483fc</v>
-      </c>
-      <c r="C86" t="str" cm="1">
-        <f t="array" ref="C86">_xlfn.UNIQUE(C2:C84)</f>
-        <v>BV</v>
-      </c>
-      <c r="D86" cm="1">
-        <f t="array" ref="D86:D168">_xlfn.UNIQUE(D2:D84)</f>
-        <v>163</v>
-      </c>
-      <c r="E86" t="str" cm="1">
-        <f t="array" ref="E86:E168">_xlfn.UNIQUE(E2:E84)</f>
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_A1</v>
-      </c>
-      <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86:F110">_xlfn.UNIQUE(F2:F84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/6d7a2c90-a3d3-45c3-8e55-67cfb0ecb30c</v>
-      </c>
-      <c r="G86" cm="1">
-        <f t="array" ref="G86:G110">_xlfn.UNIQUE(G2:G84)</f>
-        <v>153</v>
-      </c>
-      <c r="H86" t="str" cm="1">
-        <f t="array" ref="H86">_xlfn.UNIQUE(H2:H84)</f>
-        <v>*</v>
-      </c>
-      <c r="I86" t="str" cm="1">
-        <f t="array" ref="I86">_xlfn.UNIQUE(I2:I84)</f>
-        <v>**</v>
-      </c>
-      <c r="J86" t="str" cm="1">
-        <f t="array" ref="J86">_xlfn.UNIQUE(J2:J84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="K86" t="str" cm="1">
-        <f t="array" ref="K86">_xlfn.UNIQUE(K2:K84)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L86" t="str" cm="1">
-        <f t="array" ref="L86">_xlfn.UNIQUE(L2:L84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="M86" cm="1">
-        <f t="array" ref="M86">_xlfn.UNIQUE(M2:M84)</f>
-        <v>210</v>
-      </c>
-      <c r="N86" t="str" cm="1">
-        <f t="array" ref="N86">_xlfn.UNIQUE(N2:N84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/75741fa3-0667-4740-aa0e-70258432650f</v>
-      </c>
-      <c r="O86" cm="1">
-        <f t="array" ref="O86">_xlfn.UNIQUE(O2:O84)</f>
-        <v>212</v>
-      </c>
-      <c r="P86" t="str" cm="1">
-        <f t="array" ref="P86">_xlfn.UNIQUE(P2:P84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="Q86" cm="1">
-        <f t="array" ref="Q86">_xlfn.UNIQUE(Q2:Q84)</f>
-        <v>210</v>
-      </c>
-      <c r="R86" t="str" cm="1">
-        <f t="array" ref="R86">_xlfn.UNIQUE(R2:R84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="S86" cm="1">
-        <f t="array" ref="S86">_xlfn.UNIQUE(S2:S84)</f>
-        <v>210</v>
-      </c>
-      <c r="T86" t="str" cm="1">
-        <f t="array" ref="T86">_xlfn.UNIQUE(T2:T84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="U86" cm="1">
-        <f t="array" ref="U86">_xlfn.UNIQUE(U2:U84)</f>
-        <v>253</v>
-      </c>
-      <c r="V86" t="str" cm="1">
-        <f t="array" ref="V86:V117">_xlfn.UNIQUE(V2:V84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/1de23ca6-c376-428c-8594-7281234a8ac4</v>
-      </c>
-      <c r="W86" t="str" cm="1">
-        <f t="array" ref="W86:W117">_xlfn.UNIQUE(W2:W84)</f>
-        <v>V-BV-A1-SO</v>
-      </c>
-      <c r="X86" t="str" cm="1">
-        <f t="array" ref="X86">_xlfn.UNIQUE(X2:X84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="Y86" t="str" cm="1">
-        <f t="array" ref="Y86">_xlfn.UNIQUE(Y2:Y84)</f>
-        <v>0.35</v>
-      </c>
-      <c r="Z86" t="str" cm="1">
-        <f t="array" ref="Z86">_xlfn.UNIQUE(Z2:Z84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AA86" cm="1">
-        <f t="array" ref="AA86">_xlfn.UNIQUE(AA2:AA84)</f>
-        <v>210</v>
-      </c>
-      <c r="AB86" t="str" cm="1">
-        <f t="array" ref="AB86">_xlfn.UNIQUE(AB2:AB84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/75741fa3-0667-4740-aa0e-70258432650f</v>
-      </c>
-      <c r="AC86" cm="1">
-        <f t="array" ref="AC86">_xlfn.UNIQUE(AC2:AC84)</f>
-        <v>212</v>
-      </c>
-      <c r="AD86" t="str" cm="1">
-        <f t="array" ref="AD86">_xlfn.UNIQUE(AD2:AD84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AE86" cm="1">
-        <f t="array" ref="AE86">_xlfn.UNIQUE(AE2:AE84)</f>
-        <v>210</v>
-      </c>
-      <c r="AF86" t="str" cm="1">
-        <f t="array" ref="AF86">_xlfn.UNIQUE(AF2:AF84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AG86" cm="1">
-        <f t="array" ref="AG86">_xlfn.UNIQUE(AG2:AG84)</f>
-        <v>210</v>
-      </c>
-      <c r="AH86" t="str" cm="1">
-        <f t="array" ref="AH86">_xlfn.UNIQUE(AH2:AH84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AI86" cm="1">
-        <f t="array" ref="AI86">_xlfn.UNIQUE(AI2:AI84)</f>
-        <v>253</v>
-      </c>
-      <c r="AJ86" t="str" cm="1">
-        <f t="array" ref="AJ86:AJ117">_xlfn.UNIQUE(AJ2:AJ84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/1de23ca6-c376-428c-8594-7281234a8ac4</v>
-      </c>
-      <c r="AK86" t="str" cm="1">
-        <f t="array" ref="AK86:AK117">_xlfn.UNIQUE(AK2:AK84)</f>
-        <v>V-BV-A1-SO</v>
-      </c>
-      <c r="AL86" t="str" cm="1">
-        <f t="array" ref="AL86:AL87">_xlfn.UNIQUE(AL2:AL84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="AM86" t="str" cm="1">
-        <f t="array" ref="AM86:AM87">_xlfn.UNIQUE(AM2:AM84)</f>
-        <v>0.35</v>
-      </c>
-      <c r="AN86" t="str" cm="1">
-        <f t="array" ref="AN86">_xlfn.UNIQUE(AN2:AN84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AO86" cm="1">
-        <f t="array" ref="AO86">_xlfn.UNIQUE(AO2:AO84)</f>
-        <v>210</v>
-      </c>
-      <c r="AP86" t="str" cm="1">
-        <f t="array" ref="AP86">_xlfn.UNIQUE(AP2:AP84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/75741fa3-0667-4740-aa0e-70258432650f</v>
-      </c>
-      <c r="AQ86" cm="1">
-        <f t="array" ref="AQ86">_xlfn.UNIQUE(AQ2:AQ84)</f>
-        <v>212</v>
-      </c>
-      <c r="AR86" t="str" cm="1">
-        <f t="array" ref="AR86">_xlfn.UNIQUE(AR2:AR84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AS86" cm="1">
-        <f t="array" ref="AS86">_xlfn.UNIQUE(AS2:AS84)</f>
-        <v>210</v>
-      </c>
-      <c r="AT86" t="str" cm="1">
-        <f t="array" ref="AT86">_xlfn.UNIQUE(AT2:AT84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="AU86" cm="1">
-        <f t="array" ref="AU86">_xlfn.UNIQUE(AU2:AU84)</f>
-        <v>210</v>
-      </c>
-      <c r="AV86" t="str" cm="1">
-        <f t="array" ref="AV86">_xlfn.UNIQUE(AV2:AV84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="AW86" cm="1">
-        <f t="array" ref="AW86">_xlfn.UNIQUE(AW2:AW84)</f>
-        <v>253</v>
-      </c>
-      <c r="AX86" t="str" cm="1">
-        <f t="array" ref="AX86:AX117">_xlfn.UNIQUE(AX2:AX84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/1881c79d-6ce6-475e-9d0a-a47c59ebc1ea</v>
-      </c>
-      <c r="AY86" t="str" cm="1">
-        <f t="array" ref="AY86:AY117">_xlfn.UNIQUE(AY2:AY84)</f>
-        <v>BV-A1-SO</v>
-      </c>
-      <c r="AZ86" t="str" cm="1">
-        <f t="array" ref="AZ86">_xlfn.UNIQUE(AZ2:AZ84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</v>
-      </c>
-      <c r="BA86" t="str" cm="1">
-        <f t="array" ref="BA86">_xlfn.UNIQUE(BA2:BA84)</f>
-        <v>0.35</v>
-      </c>
-      <c r="BB86" t="str" cm="1">
-        <f t="array" ref="BB86">_xlfn.UNIQUE(BB2:BB84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="BC86" cm="1">
-        <f t="array" ref="BC86">_xlfn.UNIQUE(BC2:BC84)</f>
-        <v>210</v>
-      </c>
-      <c r="BD86" t="str" cm="1">
-        <f t="array" ref="BD86">_xlfn.UNIQUE(BD2:BD84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/75741fa3-0667-4740-aa0e-70258432650f</v>
-      </c>
-      <c r="BE86" cm="1">
-        <f t="array" ref="BE86">_xlfn.UNIQUE(BE2:BE84)</f>
-        <v>212</v>
-      </c>
-      <c r="BF86" t="str" cm="1">
-        <f t="array" ref="BF86">_xlfn.UNIQUE(BF2:BF84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="BG86" cm="1">
-        <f t="array" ref="BG86">_xlfn.UNIQUE(BG2:BG84)</f>
-        <v>210</v>
-      </c>
-      <c r="BH86" t="str" cm="1">
-        <f t="array" ref="BH86">_xlfn.UNIQUE(BH2:BH84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/f11a9a12-f333-4dbd-8c2f-b07192f870f9</v>
-      </c>
-      <c r="BI86" cm="1">
-        <f t="array" ref="BI86">_xlfn.UNIQUE(BI2:BI84)</f>
-        <v>210</v>
-      </c>
-      <c r="BJ86" t="str" cm="1">
-        <f t="array" ref="BJ86">_xlfn.UNIQUE(BJ2:BJ84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</v>
-      </c>
-      <c r="BK86" cm="1">
-        <f t="array" ref="BK86">_xlfn.UNIQUE(BK2:BK84)</f>
-        <v>253</v>
-      </c>
-      <c r="BL86" t="str" cm="1">
-        <f t="array" ref="BL86:BL117">_xlfn.UNIQUE(BL2:BL84)</f>
-        <v>http://digitalbuildingdata.tech/nlcs/def/1de23ca6-c376-428c-8594-7281234a8ac4</v>
-      </c>
-      <c r="BM86" t="str" cm="1">
-        <f t="array" ref="BM86:BM117">_xlfn.UNIQUE(BM2:BM84)</f>
-        <v>V-BV-A1-SO</v>
-      </c>
-      <c r="BN86" cm="1">
-        <f t="array" ref="BN86">_xlfn.UNIQUE(BN2:BN84)</f>
-        <v>0</v>
-      </c>
-      <c r="BO86" cm="1">
-        <f t="array" ref="BO86:BO88">_xlfn.UNIQUE(BO2:BO84)</f>
-        <v>0</v>
-      </c>
-      <c r="BP86" cm="1">
-        <f t="array" ref="BP86:BP88">_xlfn.UNIQUE(BP2:BP84)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ86" cm="1">
-        <f t="array" ref="BQ86">_xlfn.UNIQUE(BQ2:BQ84)</f>
-        <v>0</v>
-      </c>
-      <c r="BR86" cm="1">
-        <f t="array" ref="BR86">_xlfn.UNIQUE(BR2:BR84)</f>
-        <v>0</v>
-      </c>
-      <c r="BS86" cm="1">
-        <f t="array" ref="BS86">_xlfn.UNIQUE(BS2:BS84)</f>
-        <v>0</v>
-      </c>
-      <c r="BT86" cm="1">
-        <f t="array" ref="BT86">_xlfn.UNIQUE(BT2:BT84)</f>
-        <v>0</v>
-      </c>
-      <c r="BU86" cm="1">
-        <f t="array" ref="BU86">_xlfn.UNIQUE(BU2:BU84)</f>
-        <v>0</v>
-      </c>
-      <c r="BV86" cm="1">
-        <f t="array" ref="BV86">_xlfn.UNIQUE(BV2:BV84)</f>
-        <v>0</v>
-      </c>
-      <c r="BW86" cm="1">
-        <f t="array" ref="BW86">_xlfn.UNIQUE(BW2:BW84)</f>
-        <v>0</v>
-      </c>
-      <c r="BX86" cm="1">
-        <f t="array" ref="BX86">_xlfn.UNIQUE(BX2:BX84)</f>
-        <v>0</v>
-      </c>
-      <c r="BY86" cm="1">
-        <f t="array" ref="BY86">_xlfn.UNIQUE(BY2:BY84)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ86" cm="1">
-        <f t="array" ref="BZ86">_xlfn.UNIQUE(BZ2:BZ84)</f>
-        <v>0</v>
-      </c>
-      <c r="CA86" cm="1">
-        <f t="array" ref="CA86">_xlfn.UNIQUE(CA2:CA84)</f>
-        <v>0</v>
-      </c>
-      <c r="CB86" cm="1">
-        <f t="array" ref="CB86">_xlfn.UNIQUE(CB2:CB84)</f>
-        <v>0</v>
-      </c>
-      <c r="CC86" cm="1">
-        <f t="array" ref="CC86">_xlfn.UNIQUE(CC2:CC84)</f>
-        <v>0</v>
-      </c>
-      <c r="CD86" cm="1">
-        <f t="array" ref="CD86">_xlfn.UNIQUE(CD2:CD84)</f>
-        <v>0</v>
-      </c>
-      <c r="CE86" cm="1">
-        <f t="array" ref="CE86">_xlfn.UNIQUE(CE2:CE84)</f>
-        <v>0</v>
-      </c>
-      <c r="CF86" cm="1">
-        <f t="array" ref="CF86">_xlfn.UNIQUE(CF2:CF84)</f>
-        <v>0</v>
-      </c>
-      <c r="CG86" cm="1">
-        <f t="array" ref="CG86">_xlfn.UNIQUE(CG2:CG84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0823a49d-019b-416f-95bf-9013eb96e240</v>
-      </c>
-      <c r="D87">
-        <v>218</v>
-      </c>
-      <c r="E87" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_ANTIVERBLINDINGSSCHERM_FLEXLAMELLEN</v>
-      </c>
-      <c r="F87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/75af1d75-9a24-4000-a221-86f8b78d3a61</v>
-      </c>
-      <c r="G87">
-        <v>215</v>
-      </c>
-      <c r="V87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3d0fc360-79b2-423a-aff9-ebd8f37d520c</v>
-      </c>
-      <c r="W87" t="str">
-        <v>BV-ANTIVERBLINDINGSSCHERM-SO</v>
-      </c>
-      <c r="AJ87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3d0fc360-79b2-423a-aff9-ebd8f37d520c</v>
-      </c>
-      <c r="AK87" t="str">
-        <v>BV-ANTIVERBLINDINGSSCHERM-SO</v>
-      </c>
-      <c r="AL87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</v>
-      </c>
-      <c r="AM87" t="str">
-        <v>0.18</v>
-      </c>
-      <c r="AX87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3d0fc360-79b2-423a-aff9-ebd8f37d520c</v>
-      </c>
-      <c r="AY87" t="str">
-        <v>BV-ANTIVERBLINDINGSSCHERM-SO</v>
-      </c>
-      <c r="BL87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/72e31df6-0a18-4e3a-9d04-bf7519777b32</v>
-      </c>
-      <c r="BM87" t="str">
-        <v>V-BV-ANTIVERBLINDINGSSCHERM-SO</v>
-      </c>
-      <c r="BO87" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5abb74c4-a84d-439e-85ee-0418665c6b55</v>
-      </c>
-      <c r="BP87" t="str">
-        <v>SBV-LEUNING</v>
-      </c>
-    </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a4ab3385-3d28-478e-80ec-74dbeb73d994</v>
-      </c>
-      <c r="D88">
-        <v>216</v>
-      </c>
-      <c r="E88" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_ANTIVERBLINDINGSSCHERM_LAMELLEN</v>
-      </c>
-      <c r="F88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6fa3f573-3b62-4e37-8f30-e2b52115523b</v>
-      </c>
-      <c r="G88">
-        <v>189</v>
-      </c>
-      <c r="V88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b918855a-f1ee-45c9-bf20-8786f8b59386</v>
-      </c>
-      <c r="W88" t="str">
-        <v>BV-BEVER-SO</v>
-      </c>
-      <c r="AJ88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b918855a-f1ee-45c9-bf20-8786f8b59386</v>
-      </c>
-      <c r="AK88" t="str">
-        <v>BV-BEVER-SO</v>
-      </c>
-      <c r="AX88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b918855a-f1ee-45c9-bf20-8786f8b59386</v>
-      </c>
-      <c r="AY88" t="str">
-        <v>BV-BEVER-SO</v>
-      </c>
-      <c r="BL88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/727fcd51-9358-4378-9d5d-0b401dc89f01</v>
-      </c>
-      <c r="BM88" t="str">
-        <v>V-BV-BEVER-SO</v>
-      </c>
-      <c r="BO88" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b677ff1d-795d-4d06-a474-5ba996c432fe</v>
-      </c>
-      <c r="BP88" t="str">
-        <v>SBV-GELEIDECONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/665a49c9-fca1-458f-b0aa-41490fb5b562</v>
-      </c>
-      <c r="D89">
-        <v>217</v>
-      </c>
-      <c r="E89" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_ANTIVERBLINDINGSSCHERM_SCHERM</v>
-      </c>
-      <c r="F89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bc2546f3-eb50-4d25-98ab-b60681f7282c</v>
-      </c>
-      <c r="G89">
-        <v>169</v>
-      </c>
-      <c r="V89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9aa0f47e-6535-4121-8987-27906048194d</v>
-      </c>
-      <c r="W89" t="str">
-        <v>BV-F2DL40080-SO</v>
-      </c>
-      <c r="AJ89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9aa0f47e-6535-4121-8987-27906048194d</v>
-      </c>
-      <c r="AK89" t="str">
-        <v>BV-F2DL40080-SO</v>
-      </c>
-      <c r="AX89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9aa0f47e-6535-4121-8987-27906048194d</v>
-      </c>
-      <c r="AY89" t="str">
-        <v>BV-F2DL40080-SO</v>
-      </c>
-      <c r="BL89" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f9c7e0c7-fc35-497b-8b48-07db1511c4c6</v>
-      </c>
-      <c r="BM89" t="str">
-        <v>V-BV-F2DL40080-SO</v>
-      </c>
-    </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3ad3dc04-272b-4ce6-bac9-ebbe1c6b8880</v>
-      </c>
-      <c r="D90">
-        <v>164</v>
-      </c>
-      <c r="E90" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_BEVER</v>
-      </c>
-      <c r="F90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c39b8e84-38a6-4c61-a82f-64f9c77521c2</v>
-      </c>
-      <c r="G90">
-        <v>151</v>
-      </c>
-      <c r="V90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/749c0a02-76a7-4782-9a62-2fd7973c362b</v>
-      </c>
-      <c r="W90" t="str">
-        <v>BV-F2M40080-SO</v>
-      </c>
-      <c r="AJ90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/749c0a02-76a7-4782-9a62-2fd7973c362b</v>
-      </c>
-      <c r="AK90" t="str">
-        <v>BV-F2M40080-SO</v>
-      </c>
-      <c r="AX90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/749c0a02-76a7-4782-9a62-2fd7973c362b</v>
-      </c>
-      <c r="AY90" t="str">
-        <v>BV-F2M40080-SO</v>
-      </c>
-      <c r="BL90" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/da382c98-e332-43c9-be39-c47e927d0b1d</v>
-      </c>
-      <c r="BM90" t="str">
-        <v>V-BV-F2M40080-SO</v>
-      </c>
-    </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5fc6505d-b298-4370-a588-6bc1b7d3a60d</v>
-      </c>
-      <c r="D91">
-        <v>190</v>
-      </c>
-      <c r="E91" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_F2DL40080</v>
-      </c>
-      <c r="F91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/84e4442e-8623-4f36-8b94-ffa4bfd88f05</v>
-      </c>
-      <c r="G91">
-        <v>168</v>
-      </c>
-      <c r="V91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ebbb9a14-d798-4afc-9bf7-8ef245003404</v>
-      </c>
-      <c r="W91" t="str">
-        <v>BV-GELEIDEBARRIER-SO</v>
-      </c>
-      <c r="AJ91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ebbb9a14-d798-4afc-9bf7-8ef245003404</v>
-      </c>
-      <c r="AK91" t="str">
-        <v>BV-GELEIDEBARRIER-SO</v>
-      </c>
-      <c r="AX91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ebbb9a14-d798-4afc-9bf7-8ef245003404</v>
-      </c>
-      <c r="AY91" t="str">
-        <v>BV-GELEIDEBARRIER-SO</v>
-      </c>
-      <c r="BL91" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/809536fe-cbce-4bb8-9427-404dd4213c32</v>
-      </c>
-      <c r="BM91" t="str">
-        <v>V-BV-GELEIDEBARRIER-SO</v>
-      </c>
-    </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ade5d773-6cb8-482c-be9c-8ce051686961</v>
-      </c>
-      <c r="D92">
-        <v>170</v>
-      </c>
-      <c r="E92" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_F2M40080</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="V92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b3f2db1d-60aa-4ddf-b91c-7e52aa7e6d15</v>
-      </c>
-      <c r="W92" t="str">
-        <v>BV-GELEIDERAIL_A-SO</v>
-      </c>
-      <c r="AJ92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b3f2db1d-60aa-4ddf-b91c-7e52aa7e6d15</v>
-      </c>
-      <c r="AK92" t="str">
-        <v>BV-GELEIDERAIL_A-SO</v>
-      </c>
-      <c r="AX92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b3f2db1d-60aa-4ddf-b91c-7e52aa7e6d15</v>
-      </c>
-      <c r="AY92" t="str">
-        <v>BV-GELEIDERAIL_A-SO</v>
-      </c>
-      <c r="BL92" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/41f0fda2-a614-40b7-aea7-b74e28a0bd61</v>
-      </c>
-      <c r="BM92" t="str">
-        <v>V-BV-GELEIDERAIL_A-SO</v>
-      </c>
-    </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f8eb9044-c06a-43b0-ba31-b65083065572</v>
-      </c>
-      <c r="D93">
-        <v>152</v>
-      </c>
-      <c r="E93" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER</v>
-      </c>
-      <c r="F93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f9f9a844-80d7-43ea-9705-9264dbffb2b7</v>
-      </c>
-      <c r="G93">
-        <v>155</v>
-      </c>
-      <c r="V93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8b8e511c-1f8f-4319-b21e-7afac225556f</v>
-      </c>
-      <c r="W93" t="str">
-        <v>BV-GELEIDERAIL_K-SO</v>
-      </c>
-      <c r="AJ93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8b8e511c-1f8f-4319-b21e-7afac225556f</v>
-      </c>
-      <c r="AK93" t="str">
-        <v>BV-GELEIDERAIL_K-SO</v>
-      </c>
-      <c r="AX93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8b8e511c-1f8f-4319-b21e-7afac225556f</v>
-      </c>
-      <c r="AY93" t="str">
-        <v>BV-GELEIDERAIL_K-SO</v>
-      </c>
-      <c r="BL93" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8dda4f1e-1cc5-4607-82ed-d9ce621a48af</v>
-      </c>
-      <c r="BM93" t="str">
-        <v>V-BV-GELEIDERAIL_K-SO</v>
-      </c>
-    </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bc2546f3-eb50-4d25-98ab-b60681f7282c</v>
-      </c>
-      <c r="D94">
-        <v>169</v>
-      </c>
-      <c r="E94" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN</v>
-      </c>
-      <c r="F94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f8eb9044-c06a-43b0-ba31-b65083065572</v>
-      </c>
-      <c r="G94">
-        <v>152</v>
-      </c>
-      <c r="V94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/de83ef1d-425b-49c5-8a90-3e3be6a36749</v>
-      </c>
-      <c r="W94" t="str">
-        <v>BV-GELEIDERAIL-SO</v>
-      </c>
-      <c r="AJ94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/de83ef1d-425b-49c5-8a90-3e3be6a36749</v>
-      </c>
-      <c r="AK94" t="str">
-        <v>BV-GELEIDERAIL-SO</v>
-      </c>
-      <c r="AX94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/de83ef1d-425b-49c5-8a90-3e3be6a36749</v>
-      </c>
-      <c r="AY94" t="str">
-        <v>BV-GELEIDERAIL-SO</v>
-      </c>
-      <c r="BL94" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9374c692-4ac3-4357-a513-1fbb1d2cb6a1</v>
-      </c>
-      <c r="BM94" t="str">
-        <v>V-BV-GELEIDERAIL-SO</v>
-      </c>
-    </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6fa3f573-3b62-4e37-8f30-e2b52115523b</v>
-      </c>
-      <c r="D95">
-        <v>189</v>
-      </c>
-      <c r="E95" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK</v>
-      </c>
-      <c r="F95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e6cc5bbb-2372-48f9-9965-9669f8432cfb</v>
-      </c>
-      <c r="G95">
-        <v>197</v>
-      </c>
-      <c r="V95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/252a8e8f-c956-4b6a-8358-3aa3ea137ca4</v>
-      </c>
-      <c r="W95" t="str">
-        <v>BV-LEUNING-SO</v>
-      </c>
-      <c r="AJ95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/252a8e8f-c956-4b6a-8358-3aa3ea137ca4</v>
-      </c>
-      <c r="AK95" t="str">
-        <v>BV-LEUNING-SO</v>
-      </c>
-      <c r="AX95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/252a8e8f-c956-4b6a-8358-3aa3ea137ca4</v>
-      </c>
-      <c r="AY95" t="str">
-        <v>BV-LEUNING-SO</v>
-      </c>
-      <c r="BL95" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/67447803-a668-4f3b-9ff1-d7945743b30b</v>
-      </c>
-      <c r="BM95" t="str">
-        <v>V-BV-LEUNING-SO</v>
-      </c>
-    </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/84e4442e-8623-4f36-8b94-ffa4bfd88f05</v>
-      </c>
-      <c r="D96">
-        <v>168</v>
-      </c>
-      <c r="E96" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL</v>
-      </c>
-      <c r="F96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a592c330-3eb5-4707-8795-1e6174c16d6f</v>
-      </c>
-      <c r="G96">
-        <v>200</v>
-      </c>
-      <c r="V96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/965c1109-8d97-4fe9-a3f3-d6aa26364673</v>
-      </c>
-      <c r="W96" t="str">
-        <v>BV-RWS-SO</v>
-      </c>
-      <c r="AJ96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/965c1109-8d97-4fe9-a3f3-d6aa26364673</v>
-      </c>
-      <c r="AK96" t="str">
-        <v>BV-RWS-SO</v>
-      </c>
-      <c r="AX96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/965c1109-8d97-4fe9-a3f3-d6aa26364673</v>
-      </c>
-      <c r="AY96" t="str">
-        <v>BV-RWS-SO</v>
-      </c>
-      <c r="BL96" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/22bdd144-15f5-4d00-9ceb-017800f9724c</v>
-      </c>
-      <c r="BM96" t="str">
-        <v>V-BV-RWS-SO</v>
-      </c>
-    </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c29f969d-86f5-456e-a620-d42fb30565f0</v>
-      </c>
-      <c r="D97">
-        <v>233</v>
-      </c>
-      <c r="E97" t="str">
-        <v>LEUNING</v>
-      </c>
-      <c r="F97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b8fb95f4-f7da-4a02-a4e0-13bcbac2cdbe</v>
-      </c>
-      <c r="G97">
-        <v>203</v>
-      </c>
-      <c r="V97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c5865842-74dc-4f58-a6da-a60f7b0dbb04</v>
-      </c>
-      <c r="W97" t="str">
-        <v>BV-SAFEGUARD-SO</v>
-      </c>
-      <c r="AJ97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c5865842-74dc-4f58-a6da-a60f7b0dbb04</v>
-      </c>
-      <c r="AK97" t="str">
-        <v>BV-SAFEGUARD-SO</v>
-      </c>
-      <c r="AX97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c5865842-74dc-4f58-a6da-a60f7b0dbb04</v>
-      </c>
-      <c r="AY97" t="str">
-        <v>BV-SAFEGUARD-SO</v>
-      </c>
-      <c r="BL97" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fa439918-7990-4fde-9fc1-7357aea51ce9</v>
-      </c>
-      <c r="BM97" t="str">
-        <v>V-BV-SAFEGUARD-SO</v>
-      </c>
-    </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e162d4a4-6923-41c8-8602-8d78cc03bb8a</v>
-      </c>
-      <c r="D98">
-        <v>159</v>
-      </c>
-      <c r="E98" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_RWS</v>
-      </c>
-      <c r="F98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e90370bb-1b94-4b9c-b12a-89f522ae2bc2</v>
-      </c>
-      <c r="G98">
-        <v>183</v>
-      </c>
-      <c r="V98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/29fb1215-56f9-4341-aae4-c00ff22f2163</v>
-      </c>
-      <c r="W98" t="str">
-        <v>BV-SLIPFORM-SO</v>
-      </c>
-      <c r="AJ98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/29fb1215-56f9-4341-aae4-c00ff22f2163</v>
-      </c>
-      <c r="AK98" t="str">
-        <v>BV-SLIPFORM-SO</v>
-      </c>
-      <c r="AX98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/29fb1215-56f9-4341-aae4-c00ff22f2163</v>
-      </c>
-      <c r="AY98" t="str">
-        <v>BV-SLIPFORM-SO</v>
-      </c>
-      <c r="BL98" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/678b237a-8fbc-44ac-959b-6e13cb24d8e5</v>
-      </c>
-      <c r="BM98" t="str">
-        <v>V-BV-SLIPFORM-SO</v>
-      </c>
-    </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3f2a95e9-1d6e-438a-8f68-9611a0ff724c</v>
-      </c>
-      <c r="D99">
-        <v>160</v>
-      </c>
-      <c r="E99" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_SAFEGUARD</v>
-      </c>
-      <c r="F99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5abe08bf-98ab-408e-b263-d82f93d934e6</v>
-      </c>
-      <c r="G99">
-        <v>180</v>
-      </c>
-      <c r="V99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e7990621-7ad5-4547-9418-fff444589116</v>
-      </c>
-      <c r="W99" t="str">
-        <v>BV-STEPBARRIER_BG-SO</v>
-      </c>
-      <c r="AJ99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e7990621-7ad5-4547-9418-fff444589116</v>
-      </c>
-      <c r="AK99" t="str">
-        <v>BV-STEPBARRIER_BG-SO</v>
-      </c>
-      <c r="AX99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e7990621-7ad5-4547-9418-fff444589116</v>
-      </c>
-      <c r="AY99" t="str">
-        <v>BV-STEPBARRIER_BG-SO</v>
-      </c>
-      <c r="BL99" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5ed9ffa4-b267-4267-a432-df01841d4194</v>
-      </c>
-      <c r="BM99" t="str">
-        <v>V-BV-STEPBARRIER_BG-SO</v>
-      </c>
-    </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2249eaad-b58d-41f5-9960-6b0db861598f</v>
-      </c>
-      <c r="D100">
-        <v>158</v>
-      </c>
-      <c r="E100" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_BETON_SLIPFORMPAVER</v>
-      </c>
-      <c r="F100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bdc795bb-0cf3-45ad-a9b5-253eb14179ae</v>
-      </c>
-      <c r="G100">
-        <v>186</v>
-      </c>
-      <c r="V100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/57c38aef-4950-4b19-8ce0-421a705616ec</v>
-      </c>
-      <c r="W100" t="str">
-        <v>BV-STEPBARRIER_B-SO</v>
-      </c>
-      <c r="AJ100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/57c38aef-4950-4b19-8ce0-421a705616ec</v>
-      </c>
-      <c r="AK100" t="str">
-        <v>BV-STEPBARRIER_B-SO</v>
-      </c>
-      <c r="AX100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/57c38aef-4950-4b19-8ce0-421a705616ec</v>
-      </c>
-      <c r="AY100" t="str">
-        <v>BV-STEPBARRIER_B-SO</v>
-      </c>
-      <c r="BL100" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/699a8991-7ea3-41ce-aacb-92ae6376a92e</v>
-      </c>
-      <c r="BM100" t="str">
-        <v>V-BV-STEPBARRIER_B-SO</v>
-      </c>
-    </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/47830c97-a9f2-4dd9-994b-04fd5601cf43</v>
-      </c>
-      <c r="D101">
-        <v>157</v>
-      </c>
-      <c r="E101" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_BETON_PREFABGEKOPPELD</v>
-      </c>
-      <c r="F101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ab9a92f8-5002-490f-b937-d580629e04ac</v>
-      </c>
-      <c r="G101">
-        <v>191</v>
-      </c>
-      <c r="V101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d7547c78-98dc-4b37-beec-75e48c844c1b</v>
-      </c>
-      <c r="W101" t="str">
-        <v>BV-STEPBARRIER_BV-SO</v>
-      </c>
-      <c r="AJ101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d7547c78-98dc-4b37-beec-75e48c844c1b</v>
-      </c>
-      <c r="AK101" t="str">
-        <v>BV-STEPBARRIER_BV-SO</v>
-      </c>
-      <c r="AX101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d7547c78-98dc-4b37-beec-75e48c844c1b</v>
-      </c>
-      <c r="AY101" t="str">
-        <v>BV-STEPBARRIER_BV-SO</v>
-      </c>
-      <c r="BL101" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c9a8b55e-73a1-49c6-8a50-800ae43eee98</v>
-      </c>
-      <c r="BM101" t="str">
-        <v>V-BV-STEPBARRIER_BV-SO</v>
-      </c>
-    </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f9f9a844-80d7-43ea-9705-9264dbffb2b7</v>
-      </c>
-      <c r="D102">
-        <v>155</v>
-      </c>
-      <c r="E102" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_BETON</v>
-      </c>
-      <c r="F102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0b58638e-c3e3-4065-bdee-15afd99012e1</v>
-      </c>
-      <c r="G102">
-        <v>194</v>
-      </c>
-      <c r="V102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/441e7d2a-b834-4893-9c0d-cc4c3e5a8790</v>
-      </c>
-      <c r="W102" t="str">
-        <v>BV-STEPBARRIER_S-SO</v>
-      </c>
-      <c r="AJ102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/441e7d2a-b834-4893-9c0d-cc4c3e5a8790</v>
-      </c>
-      <c r="AK102" t="str">
-        <v>BV-STEPBARRIER_S-SO</v>
-      </c>
-      <c r="AX102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/441e7d2a-b834-4893-9c0d-cc4c3e5a8790</v>
-      </c>
-      <c r="AY102" t="str">
-        <v>BV-STEPBARRIER_S-SO</v>
-      </c>
-      <c r="BL102" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a77ff0ab-e561-4880-b536-273da99dd67a</v>
-      </c>
-      <c r="BM102" t="str">
-        <v>V-BV-STEPBARRIER_S-SO</v>
-      </c>
-    </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f8f3c0c6-75b9-4281-b30e-48ec372fbed7</v>
-      </c>
-      <c r="D103">
-        <v>156</v>
-      </c>
-      <c r="E103" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_BETON_PREFABVERANKERD</v>
-      </c>
-      <c r="F103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6368d241-12ec-49e8-bce8-ad077b14ca9c</v>
-      </c>
-      <c r="G103">
-        <v>174</v>
-      </c>
-      <c r="V103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/90b76048-5f67-467c-8d7e-826a433cd184</v>
-      </c>
-      <c r="W103" t="str">
-        <v>BV-STEPBARRIER-SO</v>
-      </c>
-      <c r="AJ103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/90b76048-5f67-467c-8d7e-826a433cd184</v>
-      </c>
-      <c r="AK103" t="str">
-        <v>BV-STEPBARRIER-SO</v>
-      </c>
-      <c r="AX103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/90b76048-5f67-467c-8d7e-826a433cd184</v>
-      </c>
-      <c r="AY103" t="str">
-        <v>BV-STEPBARRIER-SO</v>
-      </c>
-      <c r="BL103" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d812d4ec-8ec7-4938-91c1-060ef3f251da</v>
-      </c>
-      <c r="BM103" t="str">
-        <v>V-BV-STEPBARRIER-SO</v>
-      </c>
-    </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0b3f24ab-466f-4c1d-9a94-9cc35a853427</v>
-      </c>
-      <c r="D104">
-        <v>154</v>
-      </c>
-      <c r="E104" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_STAALVERANKERD</v>
-      </c>
-      <c r="F104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d3f4494b-d0d7-419c-b1a2-7529411312f0</v>
-      </c>
-      <c r="G104">
-        <v>171</v>
-      </c>
-      <c r="V104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4b343e90-f1a1-40a5-ac1a-b19093ffa24e</v>
-      </c>
-      <c r="W104" t="str">
-        <v>BV-VARIOGUARD-SO</v>
-      </c>
-      <c r="AJ104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4b343e90-f1a1-40a5-ac1a-b19093ffa24e</v>
-      </c>
-      <c r="AK104" t="str">
-        <v>BV-VARIOGUARD-SO</v>
-      </c>
-      <c r="AX104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4b343e90-f1a1-40a5-ac1a-b19093ffa24e</v>
-      </c>
-      <c r="AY104" t="str">
-        <v>BV-VARIOGUARD-SO</v>
-      </c>
-      <c r="BL104" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b48ad002-8110-4082-9fd8-80ae002bd160</v>
-      </c>
-      <c r="BM104" t="str">
-        <v>V-BV-VARIOGUARD-SO</v>
-      </c>
-    </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6d7a2c90-a3d3-45c3-8e55-67cfb0ecb30c</v>
-      </c>
-      <c r="D105">
-        <v>153</v>
-      </c>
-      <c r="E105" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER</v>
-      </c>
-      <c r="F105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/145231d9-3d21-465a-8571-45a5da03f04c</v>
-      </c>
-      <c r="G105">
-        <v>177</v>
-      </c>
-      <c r="V105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d2708118-ba3d-44bd-8b01-331835b837e2</v>
-      </c>
-      <c r="W105" t="str">
-        <v>BV-VECUSEC-SO</v>
-      </c>
-      <c r="AJ105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d2708118-ba3d-44bd-8b01-331835b837e2</v>
-      </c>
-      <c r="AK105" t="str">
-        <v>BV-VECUSEC-SO</v>
-      </c>
-      <c r="AX105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d2708118-ba3d-44bd-8b01-331835b837e2</v>
-      </c>
-      <c r="AY105" t="str">
-        <v>BV-VECUSEC-SO</v>
-      </c>
-      <c r="BL105" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8e585d9b-3672-4ceb-8f59-ac1f6a4d0c44</v>
-      </c>
-      <c r="BM105" t="str">
-        <v>V-BV-VECUSEC-SO</v>
-      </c>
-    </row>
-    <row r="106" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b96461dd-7956-42c5-9eb6-fcef9958a6ac</v>
-      </c>
-      <c r="D106">
-        <v>162</v>
-      </c>
-      <c r="E106" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_VARIOGUARD</v>
-      </c>
-      <c r="F106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4dd472d1-e98e-4f8f-98b9-1ae5e9826e1c</v>
-      </c>
-      <c r="G106">
-        <v>206</v>
-      </c>
-      <c r="V106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0d7e3a33-141f-461f-b2a0-b9bbcea3a87e</v>
-      </c>
-      <c r="W106" t="str">
-        <v>BV-VLP1DL13360-SO</v>
-      </c>
-      <c r="AJ106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0d7e3a33-141f-461f-b2a0-b9bbcea3a87e</v>
-      </c>
-      <c r="AK106" t="str">
-        <v>BV-VLP1DL13360-SO</v>
-      </c>
-      <c r="AX106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0d7e3a33-141f-461f-b2a0-b9bbcea3a87e</v>
-      </c>
-      <c r="AY106" t="str">
-        <v>BV-VLP1DL13360-SO</v>
-      </c>
-      <c r="BL106" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/88395e4b-b759-49d2-991f-07a553ffc955</v>
-      </c>
-      <c r="BM106" t="str">
-        <v>V-BV-VLP1DL13360-SO</v>
-      </c>
-    </row>
-    <row r="107" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2065cc8c-644b-4e53-9a88-203dfaeac21f</v>
-      </c>
-      <c r="D107">
-        <v>161</v>
-      </c>
-      <c r="E107" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_STEPBARRIER_VECUSEC</v>
-      </c>
-      <c r="F107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/669b555e-0d01-4a85-ba3d-84e845be5ba4</v>
-      </c>
-      <c r="G107">
-        <v>212</v>
-      </c>
-      <c r="V107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c4d5b442-4da2-48ab-b83e-98a701406ed4</v>
-      </c>
-      <c r="W107" t="str">
-        <v>BV-VLP1LV13360-SO</v>
-      </c>
-      <c r="AJ107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c4d5b442-4da2-48ab-b83e-98a701406ed4</v>
-      </c>
-      <c r="AK107" t="str">
-        <v>BV-VLP1LV13360-SO</v>
-      </c>
-      <c r="AX107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c4d5b442-4da2-48ab-b83e-98a701406ed4</v>
-      </c>
-      <c r="AY107" t="str">
-        <v>BV-VLP1LV13360-SO</v>
-      </c>
-      <c r="BL107" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/53b8ba20-445b-45f3-b4e8-fc990da02374</v>
-      </c>
-      <c r="BM107" t="str">
-        <v>V-BV-VLP1LV13360-SO</v>
-      </c>
-    </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e6cc5bbb-2372-48f9-9965-9669f8432cfb</v>
-      </c>
-      <c r="D108">
-        <v>197</v>
-      </c>
-      <c r="E108" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1DL13360</v>
-      </c>
-      <c r="F108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/92b13fd2-21ff-4b47-916d-747768900cd7</v>
-      </c>
-      <c r="G108">
-        <v>221</v>
-      </c>
-      <c r="V108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/91c395e6-5837-46e7-b81b-1aff01a79baa</v>
-      </c>
-      <c r="W108" t="str">
-        <v>BV-VLP1R13360-SO</v>
-      </c>
-      <c r="AJ108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/91c395e6-5837-46e7-b81b-1aff01a79baa</v>
-      </c>
-      <c r="AK108" t="str">
-        <v>BV-VLP1R13360-SO</v>
-      </c>
-      <c r="AX108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/91c395e6-5837-46e7-b81b-1aff01a79baa</v>
-      </c>
-      <c r="AY108" t="str">
-        <v>BV-VLP1R13360-SO</v>
-      </c>
-      <c r="BL108" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e4cfd8ea-73fe-45e5-8bce-4aad590cb86c</v>
-      </c>
-      <c r="BM108" t="str">
-        <v>V-BV-VLP1R13360-SO</v>
-      </c>
-    </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bca9a3d8-6eb4-40a2-a0f4-41ba7bb53426</v>
-      </c>
-      <c r="D109">
-        <v>198</v>
-      </c>
-      <c r="E109" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1DL13360_LINKS</v>
-      </c>
-      <c r="F109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2f9641f9-249c-404a-8304-d248dc1ee0f5</v>
-      </c>
-      <c r="G109">
-        <v>228</v>
-      </c>
-      <c r="V109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/73188e21-7366-44de-beb8-9c173f6d653b</v>
-      </c>
-      <c r="W109" t="str">
-        <v>BV-VLP1Z13360-SO</v>
-      </c>
-      <c r="AJ109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/73188e21-7366-44de-beb8-9c173f6d653b</v>
-      </c>
-      <c r="AK109" t="str">
-        <v>BV-VLP1Z13360-SO</v>
-      </c>
-      <c r="AX109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/73188e21-7366-44de-beb8-9c173f6d653b</v>
-      </c>
-      <c r="AY109" t="str">
-        <v>BV-VLP1Z13360-SO</v>
-      </c>
-      <c r="BL109" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b4eb8007-548b-44c5-a72f-4bd719e756a9</v>
-      </c>
-      <c r="BM109" t="str">
-        <v>V-BV-VLP1Z13360-SO</v>
-      </c>
-    </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/dc2f0937-3c4c-4301-ad0e-c5974504c1f8</v>
-      </c>
-      <c r="D110">
-        <v>199</v>
-      </c>
-      <c r="E110" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1DL13360_RECHTS</v>
-      </c>
-      <c r="F110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/aeb099b3-51c6-461e-b034-4be8e470fe0f</v>
-      </c>
-      <c r="G110">
-        <v>229</v>
-      </c>
-      <c r="V110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/95e55702-f575-44e0-aabf-443545abc444</v>
-      </c>
-      <c r="W110" t="str">
-        <v>BV-VLP1Z26760-SO</v>
-      </c>
-      <c r="AJ110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/95e55702-f575-44e0-aabf-443545abc444</v>
-      </c>
-      <c r="AK110" t="str">
-        <v>BV-VLP1Z26760-SO</v>
-      </c>
-      <c r="AX110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/95e55702-f575-44e0-aabf-443545abc444</v>
-      </c>
-      <c r="AY110" t="str">
-        <v>BV-VLP1Z26760-SO</v>
-      </c>
-      <c r="BL110" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/52fcb164-e4f1-416a-a741-2a535c2a6cc6</v>
-      </c>
-      <c r="BM110" t="str">
-        <v>V-BV-VLP1Z26760-SO</v>
-      </c>
-    </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a592c330-3eb5-4707-8795-1e6174c16d6f</v>
-      </c>
-      <c r="D111">
-        <v>200</v>
-      </c>
-      <c r="E111" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1LV13360</v>
-      </c>
-      <c r="V111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f290ce2c-437f-4368-806a-66f3fb3fbcee</v>
-      </c>
-      <c r="W111" t="str">
-        <v>BV-VLP1ZC13360-SO</v>
-      </c>
-      <c r="AJ111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f290ce2c-437f-4368-806a-66f3fb3fbcee</v>
-      </c>
-      <c r="AK111" t="str">
-        <v>BV-VLP1ZC13360-SO</v>
-      </c>
-      <c r="AX111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f290ce2c-437f-4368-806a-66f3fb3fbcee</v>
-      </c>
-      <c r="AY111" t="str">
-        <v>BV-VLP1ZC13360-SO</v>
-      </c>
-      <c r="BL111" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/abe73532-490a-41e9-bbd4-e8e2f49b051a</v>
-      </c>
-      <c r="BM111" t="str">
-        <v>V-BV-VLP1ZC13360-SO</v>
-      </c>
-    </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c8875649-d128-4a3f-b0eb-49d6c963541b</v>
-      </c>
-      <c r="D112">
-        <v>201</v>
-      </c>
-      <c r="E112" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1LV13360_LINKS</v>
-      </c>
-      <c r="V112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/870be656-a49f-4509-8e6a-316db3dc43bb</v>
-      </c>
-      <c r="W112" t="str">
-        <v>BV-VLP2DL13380-SO</v>
-      </c>
-      <c r="AJ112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/870be656-a49f-4509-8e6a-316db3dc43bb</v>
-      </c>
-      <c r="AK112" t="str">
-        <v>BV-VLP2DL13380-SO</v>
-      </c>
-      <c r="AX112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/870be656-a49f-4509-8e6a-316db3dc43bb</v>
-      </c>
-      <c r="AY112" t="str">
-        <v>BV-VLP2DL13380-SO</v>
-      </c>
-      <c r="BL112" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/aafb5ba1-466b-49f2-83d9-dac310c3c751</v>
-      </c>
-      <c r="BM112" t="str">
-        <v>V-BV-VLP2DL13380-SO</v>
-      </c>
-    </row>
-    <row r="113" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5c81d270-d88b-4d3d-8c6c-b9da57434d66</v>
-      </c>
-      <c r="D113">
-        <v>202</v>
-      </c>
-      <c r="E113" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1LV13360_RECHTS</v>
-      </c>
-      <c r="V113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2e7a06ab-51c2-498d-b344-2b8d61f80d33</v>
-      </c>
-      <c r="W113" t="str">
-        <v>BV-VLP2R13380-SO</v>
-      </c>
-      <c r="AJ113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2e7a06ab-51c2-498d-b344-2b8d61f80d33</v>
-      </c>
-      <c r="AK113" t="str">
-        <v>BV-VLP2R13380-SO</v>
-      </c>
-      <c r="AX113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2e7a06ab-51c2-498d-b344-2b8d61f80d33</v>
-      </c>
-      <c r="AY113" t="str">
-        <v>BV-VLP2R13380-SO</v>
-      </c>
-      <c r="BL113" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/73d889e1-57e0-4328-b27e-8c1dc7cf0291</v>
-      </c>
-      <c r="BM113" t="str">
-        <v>V-BV-VLP2R13380-SO</v>
-      </c>
-    </row>
-    <row r="114" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b8fb95f4-f7da-4a02-a4e0-13bcbac2cdbe</v>
-      </c>
-      <c r="D114">
-        <v>203</v>
-      </c>
-      <c r="E114" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1R13360</v>
-      </c>
-      <c r="V114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fd6fb71c-9686-46da-9731-8a929c113d59</v>
-      </c>
-      <c r="W114" t="str">
-        <v>BV-VLP2Z13380-SO</v>
-      </c>
-      <c r="AJ114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fd6fb71c-9686-46da-9731-8a929c113d59</v>
-      </c>
-      <c r="AK114" t="str">
-        <v>BV-VLP2Z13380-SO</v>
-      </c>
-      <c r="AX114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/fd6fb71c-9686-46da-9731-8a929c113d59</v>
-      </c>
-      <c r="AY114" t="str">
-        <v>BV-VLP2Z13380-SO</v>
-      </c>
-      <c r="BL114" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/41418add-ee66-4279-81f0-69915c1ceff4</v>
-      </c>
-      <c r="BM114" t="str">
-        <v>V-BV-VLP2Z13380-SO</v>
-      </c>
-    </row>
-    <row r="115" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d1d99231-0a53-4dc3-b7ad-a3f490255be7</v>
-      </c>
-      <c r="D115">
-        <v>204</v>
-      </c>
-      <c r="E115" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1R13360_LINKS</v>
-      </c>
-      <c r="V115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/41dab601-238a-4312-9c5f-8511d780da18</v>
-      </c>
-      <c r="W115" t="str">
-        <v>BV-VLP2Z26780-SO</v>
-      </c>
-      <c r="AJ115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/41dab601-238a-4312-9c5f-8511d780da18</v>
-      </c>
-      <c r="AK115" t="str">
-        <v>BV-VLP2Z26780-SO</v>
-      </c>
-      <c r="AX115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/41dab601-238a-4312-9c5f-8511d780da18</v>
-      </c>
-      <c r="AY115" t="str">
-        <v>BV-VLP2Z26780-SO</v>
-      </c>
-      <c r="BL115" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4dbf97f9-2478-403e-9779-aa33eb4f8292</v>
-      </c>
-      <c r="BM115" t="str">
-        <v>V-BV-VLP2Z26780-SO</v>
-      </c>
-    </row>
-    <row r="116" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/3c61ea3e-3da0-4992-9e91-be78a2d79d94</v>
-      </c>
-      <c r="D116">
-        <v>205</v>
-      </c>
-      <c r="E116" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP1R13360_RECHTS</v>
-      </c>
-      <c r="V116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/08ba9bc6-3003-4077-9e53-b62ab43aa8db</v>
-      </c>
-      <c r="W116" t="str">
-        <v>BV-VLP2ZC13380-SO</v>
-      </c>
-      <c r="AJ116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/08ba9bc6-3003-4077-9e53-b62ab43aa8db</v>
-      </c>
-      <c r="AK116" t="str">
-        <v>BV-VLP2ZC13380-SO</v>
-      </c>
-      <c r="AX116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/08ba9bc6-3003-4077-9e53-b62ab43aa8db</v>
-      </c>
-      <c r="AY116" t="str">
-        <v>BV-VLP2ZC13380-SO</v>
-      </c>
-      <c r="BL116" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c6192b4a-d49d-4c7f-b98c-dc49b61d90a7</v>
-      </c>
-      <c r="BM116" t="str">
-        <v>V-BV-VLP2ZC13380-SO</v>
-      </c>
-    </row>
-    <row r="117" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e90370bb-1b94-4b9c-b12a-89f522ae2bc2</v>
-      </c>
-      <c r="D117">
-        <v>183</v>
-      </c>
-      <c r="E117" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z13360</v>
-      </c>
-      <c r="V117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="W117" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="AJ117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AK117" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="AX117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</v>
-      </c>
-      <c r="AY117" t="str">
-        <v>CONTINUOUS</v>
-      </c>
-      <c r="BL117" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/270c7274-5fc6-4b2c-804f-0eeafcef2cd8</v>
-      </c>
-      <c r="BM117" t="str">
-        <v>V-CONTINUOUS-SO</v>
-      </c>
-    </row>
-    <row r="118" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A118" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/cd5f6c3e-de00-4711-8e8d-d9fd0486d30d</v>
-      </c>
-      <c r="D118">
-        <v>184</v>
-      </c>
-      <c r="E118" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z13360_LINKS</v>
-      </c>
-    </row>
-    <row r="119" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A119" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f64ea305-3bf4-463a-b6f8-02de0377064a</v>
-      </c>
-      <c r="D119">
-        <v>185</v>
-      </c>
-      <c r="E119" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z13360_RECHTS</v>
-      </c>
-    </row>
-    <row r="120" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A120" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5abe08bf-98ab-408e-b263-d82f93d934e6</v>
-      </c>
-      <c r="D120">
-        <v>180</v>
-      </c>
-      <c r="E120" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z26760</v>
-      </c>
-    </row>
-    <row r="121" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A121" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4e632993-a597-4483-92a1-60d1c862d1e6</v>
-      </c>
-      <c r="D121">
-        <v>181</v>
-      </c>
-      <c r="E121" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z26760_LINKS</v>
-      </c>
-    </row>
-    <row r="122" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A122" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/465ca281-5715-49f3-8b8d-ff64e7fd5f2c</v>
-      </c>
-      <c r="D122">
-        <v>182</v>
-      </c>
-      <c r="E122" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1Z26760_RECHTS</v>
-      </c>
-    </row>
-    <row r="123" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A123" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bdc795bb-0cf3-45ad-a9b5-253eb14179ae</v>
-      </c>
-      <c r="D123">
-        <v>186</v>
-      </c>
-      <c r="E123" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1ZC13360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A124" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/f6b9c282-95ce-4479-8da4-5f027985044a</v>
-      </c>
-      <c r="D124">
-        <v>187</v>
-      </c>
-      <c r="E124" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1ZC13360_LINKS</v>
-      </c>
-    </row>
-    <row r="125" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A125" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/96def7cb-2828-4f7b-819a-3e2666be6a8e</v>
-      </c>
-      <c r="D125">
-        <v>188</v>
-      </c>
-      <c r="E125" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP1ZC13360_RECHTS</v>
-      </c>
-    </row>
-    <row r="126" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A126" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/ab9a92f8-5002-490f-b937-d580629e04ac</v>
-      </c>
-      <c r="D126">
-        <v>191</v>
-      </c>
-      <c r="E126" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2DL13380</v>
-      </c>
-    </row>
-    <row r="127" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A127" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c4c37434-5f55-4d2c-8cd1-ac0328c94ef5</v>
-      </c>
-      <c r="D127">
-        <v>192</v>
-      </c>
-      <c r="E127" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2DL13380_LINKS</v>
-      </c>
-    </row>
-    <row r="128" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A128" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0bfceba8-9553-4466-95cf-a7c756aff13b</v>
-      </c>
-      <c r="D128">
-        <v>193</v>
-      </c>
-      <c r="E128" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2DL13380_RECHTS</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0b58638e-c3e3-4065-bdee-15afd99012e1</v>
-      </c>
-      <c r="D129">
-        <v>194</v>
-      </c>
-      <c r="E129" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2R13380</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/9dde0417-31f5-44e2-93d3-b0e31746f07e</v>
-      </c>
-      <c r="D130">
-        <v>195</v>
-      </c>
-      <c r="E130" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2R13380_LINKS</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/cb99e358-28c0-46ea-aa77-b23767a9b98c</v>
-      </c>
-      <c r="D131">
-        <v>196</v>
-      </c>
-      <c r="E131" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KUNSTWERK_VLP2R13380_RECHTS</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6368d241-12ec-49e8-bce8-ad077b14ca9c</v>
-      </c>
-      <c r="D132">
-        <v>174</v>
-      </c>
-      <c r="E132" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z13380</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/519b528d-f93c-4949-9063-b3dd2dfa2a52</v>
-      </c>
-      <c r="D133">
-        <v>175</v>
-      </c>
-      <c r="E133" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z13380_LINKS</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6ce1ad07-9abc-48ab-b566-7ab597938e04</v>
-      </c>
-      <c r="D134">
-        <v>176</v>
-      </c>
-      <c r="E134" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z13380_RECHTS</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d3f4494b-d0d7-419c-b1a2-7529411312f0</v>
-      </c>
-      <c r="D135">
-        <v>171</v>
-      </c>
-      <c r="E135" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z26780</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/0d1ed7d9-925c-4065-b482-ad17b9ffcaf2</v>
-      </c>
-      <c r="D136">
-        <v>172</v>
-      </c>
-      <c r="E136" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z26780_LINKS</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/be6a52be-bc1f-4808-a288-c039fcc967f8</v>
-      </c>
-      <c r="D137">
-        <v>173</v>
-      </c>
-      <c r="E137" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2Z26780_RECHTS</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/145231d9-3d21-465a-8571-45a5da03f04c</v>
-      </c>
-      <c r="D138">
-        <v>177</v>
-      </c>
-      <c r="E138" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2ZC13380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/68280e40-2cf3-4f87-a97d-009ff5fe65c3</v>
-      </c>
-      <c r="D139">
-        <v>178</v>
-      </c>
-      <c r="E139" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2ZC13380_LINKS</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/6f17744e-d77e-423b-8415-a28c80e41f6d</v>
-      </c>
-      <c r="D140">
-        <v>179</v>
-      </c>
-      <c r="E140" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_AARDENBAAN_VLP2ZC13380_RECHTS</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c39b8e84-38a6-4c61-a82f-64f9c77521c2</v>
-      </c>
-      <c r="D141">
-        <v>151</v>
-      </c>
-      <c r="E141" t="str">
-        <v>GELEIDECONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4d669de6-d8fa-420b-b1c3-e9f319dd1b56</v>
-      </c>
-      <c r="D142">
-        <v>227</v>
-      </c>
-      <c r="E142" t="str">
-        <v>GELEIDECONSTRUCTIE_BEBAKENING</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/bd6f1540-d406-4c11-93ea-e6411022d8fe</v>
-      </c>
-      <c r="D143">
-        <v>167</v>
-      </c>
-      <c r="E143" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_ANTIVERBLINDINGSSCHERM</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b419ff91-8242-486d-9db2-6572f3360f5c</v>
-      </c>
-      <c r="D144">
-        <v>165</v>
-      </c>
-      <c r="E144" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_OVERGANG</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/8740ea6f-5a5c-49d2-af7c-f5bd642cac8a</v>
-      </c>
-      <c r="D145">
-        <v>166</v>
-      </c>
-      <c r="E145" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDEBARRIER_OVERSTAPCONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/75af1d75-9a24-4000-a221-86f8b78d3a61</v>
-      </c>
-      <c r="D146">
-        <v>215</v>
-      </c>
-      <c r="E146" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_ANTIVERBLINDINGSSCHERM</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c216e2e6-e7fb-412b-a3c8-96d4f6c2995f</v>
-      </c>
-      <c r="D147">
-        <v>219</v>
-      </c>
-      <c r="E147" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_DOORGANG</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/e6fd30ed-ed03-4863-86ca-12f7abbbc53a</v>
-      </c>
-      <c r="D148">
-        <v>220</v>
-      </c>
-      <c r="E148" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_KOPPELING</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4dd472d1-e98e-4f8f-98b9-1ae5e9826e1c</v>
-      </c>
-      <c r="D149">
-        <v>206</v>
-      </c>
-      <c r="E149" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/44261866-8a22-46a1-a154-406a8bc1faec</v>
-      </c>
-      <c r="D150">
-        <v>207</v>
-      </c>
-      <c r="E150" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG_6080</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/88669a61-d764-4f20-be39-6077420b64d9</v>
-      </c>
-      <c r="D151">
-        <v>208</v>
-      </c>
-      <c r="E151" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG_8060</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/5cfa59c2-8337-4b07-bff4-ca5b407c7da9</v>
-      </c>
-      <c r="D152">
-        <v>211</v>
-      </c>
-      <c r="E152" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG_PASPLANK</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4c42a181-d7b2-46ab-9396-7f23e51236d3</v>
-      </c>
-      <c r="D153">
-        <v>210</v>
-      </c>
-      <c r="E153" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG_SCHUIFVERBINDING</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/d0cd691b-1c3d-409f-a29d-cd727595b54b</v>
-      </c>
-      <c r="D154">
-        <v>209</v>
-      </c>
-      <c r="E154" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERGANG_SPLITSING</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/669b555e-0d01-4a85-ba3d-84e845be5ba4</v>
-      </c>
-      <c r="D155">
-        <v>212</v>
-      </c>
-      <c r="E155" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERSTAPCONSTRUCTIE</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/67ca2b84-e824-4762-92af-065eac6a6a21</v>
-      </c>
-      <c r="D156">
-        <v>213</v>
-      </c>
-      <c r="E156" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERSTAPCONSTRUCTIE_600</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a9ea4f60-8239-424d-9905-408677706c7d</v>
-      </c>
-      <c r="D157">
-        <v>214</v>
-      </c>
-      <c r="E157" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_OVERSTAPCONSTRUCTIE_800</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/92b13fd2-21ff-4b47-916d-747768900cd7</v>
-      </c>
-      <c r="D158">
-        <v>221</v>
-      </c>
-      <c r="E158" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2e421d07-da2e-4849-85d1-19b0c47130e6</v>
-      </c>
-      <c r="D159">
-        <v>226</v>
-      </c>
-      <c r="E159" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING_BOVENGRONDS</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/89068379-c178-4012-9bf5-077d0e8bb55e</v>
-      </c>
-      <c r="D160">
-        <v>225</v>
-      </c>
-      <c r="E160" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING_KORTLINKS</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b9e4db6b-4df7-4b86-9d54-2456ae78254d</v>
-      </c>
-      <c r="D161">
-        <v>223</v>
-      </c>
-      <c r="E161" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING_KORTRECHTS</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/b5f52c0a-e5c2-4806-a2a9-1e451b5d7e81</v>
-      </c>
-      <c r="D162">
-        <v>224</v>
-      </c>
-      <c r="E162" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING_LINKS</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/4a85383c-5965-4d66-beed-cd1c75f86284</v>
-      </c>
-      <c r="D163">
-        <v>222</v>
-      </c>
-      <c r="E163" t="str">
-        <v>GELEIDECONSTRUCTIE_GELEIDERAIL_VERANKERING_RECHTS</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/2f9641f9-249c-404a-8304-d248dc1ee0f5</v>
-      </c>
-      <c r="D164">
-        <v>228</v>
-      </c>
-      <c r="E164" t="str">
-        <v>OBSTAKELBEVEILIGER</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/aeb099b3-51c6-461e-b034-4be8e470fe0f</v>
-      </c>
-      <c r="D165">
-        <v>229</v>
-      </c>
-      <c r="E165" t="str">
-        <v>OBSTAKELBEVEILIGER_RIMOB</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/a50b7921-8a5a-4ce2-b23b-ec1d741182b8</v>
-      </c>
-      <c r="D166">
-        <v>232</v>
-      </c>
-      <c r="E166" t="str">
-        <v>OBSTAKELBEVEILIGER_RIMOB_P110</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/609f3cd0-ee9e-4c76-a371-5ce671ad1588</v>
-      </c>
-      <c r="D167">
-        <v>231</v>
-      </c>
-      <c r="E167" t="str">
-        <v>OBSTAKELBEVEILIGER_RIMOB_V185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="str">
-        <v>http://digitalbuildingdata.tech/nlcs/def/c966cc9a-94e6-4f53-adec-5657a8bee6e3</v>
-      </c>
-      <c r="D168">
-        <v>230</v>
-      </c>
-      <c r="E168" t="str">
-        <v>OBSTAKELBEVEILIGER_RIMOB_V270</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BS84" xr:uid="{FAE2E372-CFE5-4339-A040-B7D483DE6864}">
+  <autoFilter ref="A1:BS84" xr:uid="{E0E86384-1D7A-4E42-AF3C-45D5B6ECD475}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS84">
-      <sortCondition ref="AY1:AY84"/>
+      <sortCondition ref="E1:E84"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
